--- a/capiq_data/in_process_data/IQ108544.xlsx
+++ b/capiq_data/in_process_data/IQ108544.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADB4B52-ADAA-4042-898A-97346EC35C8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A7247F-B69A-431A-8CA9-4896D6DC4456}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"5e9bb70d-3ab9-473a-a5e8-caf6a5d4192c"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"d14d13d1-690f-42c5-a961-48818874571e"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
   </si>
   <si>
     <t>FQ12011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,120 +853,120 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40537</v>
+        <v>36890</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>10.94</v>
+        <v>-6.7649999999999997</v>
       </c>
       <c r="D2">
-        <v>432.57100000000003</v>
+        <v>44.551000000000002</v>
       </c>
       <c r="E2">
-        <v>274.43700000000001</v>
+        <v>46.158000000000001</v>
       </c>
       <c r="F2">
-        <v>266.846</v>
+        <v>13.271000000000001</v>
       </c>
       <c r="G2">
-        <v>1185.2</v>
+        <v>107.422</v>
       </c>
       <c r="H2">
-        <v>5665.5789999999997</v>
+        <v>210.33799999999999</v>
       </c>
       <c r="I2">
-        <v>63.975999999999999</v>
+        <v>15.08</v>
       </c>
       <c r="J2">
-        <v>1434.1320000000001</v>
+        <v>25</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="L2">
-        <v>-0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>436.21499999999997</v>
+        <v>60.118000000000002</v>
       </c>
       <c r="O2">
-        <v>2911.5630000000001</v>
+        <v>85.117999999999995</v>
       </c>
       <c r="P2">
-        <v>1435.1590000000001</v>
+        <v>26.63</v>
       </c>
       <c r="Q2">
-        <v>92.411000000000001</v>
+        <v>-0.41899999999999998</v>
       </c>
       <c r="R2">
-        <v>40537</v>
+        <v>36890</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>2754.0160000000001</v>
+        <v>125.22</v>
       </c>
       <c r="U2">
-        <v>608.03599999999994</v>
+        <v>22.359000000000002</v>
       </c>
       <c r="V2">
-        <v>135.321</v>
+        <v>-0.318</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-6.0789999999999997</v>
+        <v>1.2729999999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>10.94</v>
+        <v>-6.7649999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40628</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>82.444999999999993</v>
+        <v>-7.9450000000000003</v>
       </c>
       <c r="D3">
-        <v>438.65100000000001</v>
+        <v>43.741</v>
       </c>
       <c r="E3">
-        <v>285.91699999999997</v>
+        <v>45.337000000000003</v>
       </c>
       <c r="F3">
-        <v>265.17599999999999</v>
+        <v>14.468999999999999</v>
       </c>
       <c r="G3">
-        <v>1158.921</v>
+        <v>101.083</v>
       </c>
       <c r="H3">
-        <v>5836.2430000000004</v>
+        <v>202.19499999999999</v>
       </c>
       <c r="I3">
-        <v>60.72</v>
+        <v>16.811</v>
       </c>
       <c r="J3">
-        <v>1451.8820000000001</v>
+        <v>25</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.5920000000000001</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,81 +975,81 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>406.78</v>
+        <v>59.902999999999999</v>
       </c>
       <c r="O3">
-        <v>2980.8069999999998</v>
+        <v>84.903000000000006</v>
       </c>
       <c r="P3">
-        <v>1452.5709999999999</v>
+        <v>26.591999999999999</v>
       </c>
       <c r="Q3">
-        <v>-35.118000000000002</v>
+        <v>-6.1929999999999996</v>
       </c>
       <c r="R3">
-        <v>40628</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2855.4360000000001</v>
+        <v>117.292</v>
       </c>
       <c r="U3">
-        <v>572.91800000000001</v>
+        <v>16.166</v>
       </c>
       <c r="V3">
-        <v>81.87</v>
+        <v>-5.4450000000000003</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>5.0069999999999997</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>5.0999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>82.444999999999993</v>
+        <v>-7.9450000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40719</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>36.195999999999998</v>
+        <v>-1.2130000000000001</v>
       </c>
       <c r="D4">
-        <v>451.08199999999999</v>
+        <v>44.938000000000002</v>
       </c>
       <c r="E4">
-        <v>292.32400000000001</v>
+        <v>41.05</v>
       </c>
       <c r="F4">
-        <v>279.43799999999999</v>
+        <v>18.648</v>
       </c>
       <c r="G4">
-        <v>1207.796</v>
+        <v>98.013000000000005</v>
       </c>
       <c r="H4">
-        <v>5937.223</v>
+        <v>192.47499999999999</v>
       </c>
       <c r="I4">
-        <v>51.793999999999997</v>
+        <v>12.643000000000001</v>
       </c>
       <c r="J4">
-        <v>1470.11</v>
+        <v>26.55</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.5920000000000001</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>467.13799999999998</v>
+        <v>49.899000000000001</v>
       </c>
       <c r="O4">
-        <v>3026.93</v>
+        <v>76.448999999999998</v>
       </c>
       <c r="P4">
-        <v>1470.4570000000001</v>
+        <v>28.141999999999999</v>
       </c>
       <c r="Q4">
-        <v>40.883000000000003</v>
+        <v>-4.258</v>
       </c>
       <c r="R4">
-        <v>40719</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2910.2930000000001</v>
+        <v>116.026</v>
       </c>
       <c r="U4">
-        <v>613.80100000000004</v>
+        <v>11.907999999999999</v>
       </c>
       <c r="V4">
-        <v>119.92400000000001</v>
+        <v>-4.8970000000000002</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>7.3869999999999996</v>
+        <v>2.4E-2</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>36.195999999999998</v>
+        <v>-1.2130000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40810</v>
+        <v>37163</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>27.568999999999999</v>
+        <v>-4.9269999999999996</v>
       </c>
       <c r="D5">
-        <v>467.04500000000002</v>
+        <v>46.966000000000001</v>
       </c>
       <c r="E5">
-        <v>318.71199999999999</v>
+        <v>42.226999999999997</v>
       </c>
       <c r="F5">
-        <v>311.17700000000002</v>
+        <v>15.662000000000001</v>
       </c>
       <c r="G5">
-        <v>1342.9</v>
+        <v>99.575000000000003</v>
       </c>
       <c r="H5">
-        <v>6008.78</v>
+        <v>195.119</v>
       </c>
       <c r="I5">
-        <v>63.466999999999999</v>
+        <v>18.152000000000001</v>
       </c>
       <c r="J5">
-        <v>1488.58</v>
+        <v>28.416</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.998</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,164 +1141,164 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>509.45</v>
+        <v>54.896000000000001</v>
       </c>
       <c r="O5">
-        <v>3071.8850000000002</v>
+        <v>83.311999999999998</v>
       </c>
       <c r="P5">
-        <v>1521.4259999999999</v>
+        <v>30.899000000000001</v>
       </c>
       <c r="Q5">
-        <v>98.531000000000006</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="R5">
-        <v>40810</v>
+        <v>37163</v>
       </c>
       <c r="S5">
-        <v>5019</v>
+        <v>780</v>
       </c>
       <c r="T5">
-        <v>2936.895</v>
+        <v>111.807</v>
       </c>
       <c r="U5">
-        <v>712.33199999999999</v>
+        <v>12.754</v>
       </c>
       <c r="V5">
-        <v>118.90900000000001</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>1.359</v>
+        <v>3.3410000000000002</v>
       </c>
       <c r="Y5">
-        <v>32.845999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>27.568999999999999</v>
+        <v>-4.9269999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40901</v>
+        <v>37254</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>20.812000000000001</v>
+        <v>-1.573</v>
       </c>
       <c r="D6">
-        <v>472.71100000000001</v>
+        <v>47.585000000000001</v>
       </c>
       <c r="E6">
-        <v>324.22199999999998</v>
+        <v>39.548000000000002</v>
       </c>
       <c r="F6">
-        <v>295.541</v>
+        <v>17.669</v>
       </c>
       <c r="G6">
-        <v>1437.297</v>
+        <v>112.685</v>
       </c>
       <c r="H6">
-        <v>6046.0839999999998</v>
+        <v>206.88800000000001</v>
       </c>
       <c r="I6">
-        <v>62.85</v>
+        <v>10.321999999999999</v>
       </c>
       <c r="J6">
-        <v>1507.5329999999999</v>
+        <v>28.050999999999998</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.083</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-1.2849999999999999</v>
       </c>
       <c r="N6">
-        <v>511.745</v>
+        <v>42.874000000000002</v>
       </c>
       <c r="O6">
-        <v>3082.2959999999998</v>
+        <v>70.924999999999997</v>
       </c>
       <c r="P6">
-        <v>1507.5329999999999</v>
+        <v>29.614000000000001</v>
       </c>
       <c r="Q6">
-        <v>80.75</v>
+        <v>17.847999999999999</v>
       </c>
       <c r="R6">
-        <v>40901</v>
+        <v>37254</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>2963.788</v>
+        <v>135.96299999999999</v>
       </c>
       <c r="U6">
-        <v>793.08199999999999</v>
+        <v>30.602</v>
       </c>
       <c r="V6">
-        <v>111.73099999999999</v>
+        <v>-4.9829999999999997</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-6.3140000000000001</v>
+        <v>23.763000000000002</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>20.812000000000001</v>
+        <v>-1.573</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40992</v>
+        <v>37345</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>-40.273000000000003</v>
+        <v>4.4260000000000002</v>
       </c>
       <c r="D7">
-        <v>471.16500000000002</v>
+        <v>46.401000000000003</v>
       </c>
       <c r="E7">
-        <v>326.29000000000002</v>
+        <v>41.459000000000003</v>
       </c>
       <c r="F7">
-        <v>288.351</v>
+        <v>18.027999999999999</v>
       </c>
       <c r="G7">
-        <v>1491.0309999999999</v>
+        <v>119.70099999999999</v>
       </c>
       <c r="H7">
-        <v>6048.2560000000003</v>
+        <v>211.84299999999999</v>
       </c>
       <c r="I7">
-        <v>65.843000000000004</v>
+        <v>10.17</v>
       </c>
       <c r="J7">
-        <v>1527.027</v>
+        <v>27.739000000000001</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.316</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,78 +1307,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>593.822</v>
+        <v>41.548000000000002</v>
       </c>
       <c r="O7">
-        <v>3068.7730000000001</v>
+        <v>69.287000000000006</v>
       </c>
       <c r="P7">
-        <v>1527.027</v>
+        <v>28.535</v>
       </c>
       <c r="Q7">
-        <v>61.478999999999999</v>
+        <v>-4.3719999999999999</v>
       </c>
       <c r="R7">
-        <v>40992</v>
+        <v>37345</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2979.4830000000002</v>
+        <v>142.55600000000001</v>
       </c>
       <c r="U7">
-        <v>854.56100000000004</v>
+        <v>26.23</v>
       </c>
       <c r="V7">
-        <v>101.104</v>
+        <v>-4.077</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-33.811999999999998</v>
+        <v>1.1419999999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>-40.273000000000003</v>
+        <v>4.4260000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41083</v>
+        <v>37436</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>23.594000000000001</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="D8">
-        <v>470.22800000000001</v>
+        <v>48.008000000000003</v>
       </c>
       <c r="E8">
-        <v>336.43700000000001</v>
+        <v>38.923000000000002</v>
       </c>
       <c r="F8">
-        <v>289.92</v>
+        <v>18.148</v>
       </c>
       <c r="G8">
-        <v>1534.9839999999999</v>
+        <v>119.607</v>
       </c>
       <c r="H8">
-        <v>6026.7939999999999</v>
+        <v>212.01</v>
       </c>
       <c r="I8">
-        <v>55.064</v>
+        <v>9.6280000000000001</v>
       </c>
       <c r="J8">
-        <v>1542.146</v>
+        <v>27.532</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>557.10699999999997</v>
+        <v>39.220999999999997</v>
       </c>
       <c r="O8">
-        <v>3022.5430000000001</v>
+        <v>66.753</v>
       </c>
       <c r="P8">
-        <v>1542.146</v>
+        <v>28.012</v>
       </c>
       <c r="Q8">
-        <v>50.521000000000001</v>
+        <v>5.7060000000000004</v>
       </c>
       <c r="R8">
-        <v>41083</v>
+        <v>37436</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>3004.2510000000002</v>
+        <v>145.25700000000001</v>
       </c>
       <c r="U8">
-        <v>905.08199999999999</v>
+        <v>31.936</v>
       </c>
       <c r="V8">
-        <v>71.796000000000006</v>
+        <v>6.2830000000000004</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0.36299999999999999</v>
+        <v>1.196</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1429,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>23.594000000000001</v>
+        <v>0.49199999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41181</v>
+        <v>37527</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-77.766999999999996</v>
+        <v>-3.165</v>
       </c>
       <c r="D9">
-        <v>588.548</v>
+        <v>48.198</v>
       </c>
       <c r="E9">
-        <v>409.33300000000003</v>
+        <v>39.44</v>
       </c>
       <c r="F9">
-        <v>378.17099999999999</v>
+        <v>17.972000000000001</v>
       </c>
       <c r="G9">
-        <v>1563.0139999999999</v>
+        <v>137.94200000000001</v>
       </c>
       <c r="H9">
-        <v>10477.108</v>
+        <v>184.14699999999999</v>
       </c>
       <c r="I9">
-        <v>87.222999999999999</v>
+        <v>10.929</v>
       </c>
       <c r="J9">
-        <v>4971.1790000000001</v>
+        <v>2.2679999999999998</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>661.34900000000005</v>
+        <v>39.47</v>
       </c>
       <c r="O9">
-        <v>7516.0770000000002</v>
+        <v>41.738</v>
       </c>
       <c r="P9">
-        <v>5068.87</v>
+        <v>2.7480000000000002</v>
       </c>
       <c r="Q9">
-        <v>-344.65199999999999</v>
+        <v>13.9</v>
       </c>
       <c r="R9">
-        <v>41181</v>
+        <v>37527</v>
       </c>
       <c r="S9">
-        <v>6157</v>
+        <v>729</v>
       </c>
       <c r="T9">
-        <v>2961.0309999999999</v>
+        <v>142.40899999999999</v>
       </c>
       <c r="U9">
-        <v>560.42999999999995</v>
+        <v>45.835999999999999</v>
       </c>
       <c r="V9">
-        <v>85.590999999999994</v>
+        <v>9.7379999999999995</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>3367.8620000000001</v>
+        <v>-25.062999999999999</v>
       </c>
       <c r="Y9">
-        <v>33.256</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>-77.766999999999996</v>
+        <v>-3.165</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41272</v>
+        <v>37618</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>3.1179999999999999</v>
+        <v>-1.081</v>
       </c>
       <c r="D10">
-        <v>631.36199999999997</v>
+        <v>49.002000000000002</v>
       </c>
       <c r="E10">
-        <v>405.65300000000002</v>
+        <v>35.344000000000001</v>
       </c>
       <c r="F10">
-        <v>386.83600000000001</v>
+        <v>17.795000000000002</v>
       </c>
       <c r="G10">
-        <v>1660.2360000000001</v>
+        <v>132.36799999999999</v>
       </c>
       <c r="H10">
-        <v>10468.555</v>
+        <v>179.38399999999999</v>
       </c>
       <c r="I10">
-        <v>76.367000000000004</v>
+        <v>10.356999999999999</v>
       </c>
       <c r="J10">
-        <v>4237.085</v>
+        <v>2.04</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1433,81 +1553,81 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>-16.25</v>
+        <v>-0.22900000000000001</v>
       </c>
       <c r="N10">
-        <v>1551.7529999999999</v>
+        <v>35.387</v>
       </c>
       <c r="O10">
-        <v>7484.1790000000001</v>
+        <v>37.427</v>
       </c>
       <c r="P10">
-        <v>5036.0219999999999</v>
+        <v>2.52</v>
       </c>
       <c r="Q10">
-        <v>158.041</v>
+        <v>-2.6269999999999998</v>
       </c>
       <c r="R10">
-        <v>41272</v>
+        <v>37618</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>2984.3760000000002</v>
+        <v>141.95699999999999</v>
       </c>
       <c r="U10">
-        <v>718.471</v>
+        <v>43.209000000000003</v>
       </c>
       <c r="V10">
-        <v>155.02500000000001</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-12.581</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-3.625</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>3.1179999999999999</v>
+        <v>-1.081</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41363</v>
+        <v>37709</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-51.103999999999999</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="D11">
-        <v>612.66300000000001</v>
+        <v>50.296999999999997</v>
       </c>
       <c r="E11">
-        <v>401.30099999999999</v>
+        <v>42.219000000000001</v>
       </c>
       <c r="F11">
-        <v>377.55900000000003</v>
+        <v>18.312000000000001</v>
       </c>
       <c r="G11">
-        <v>1607.248</v>
+        <v>134.57300000000001</v>
       </c>
       <c r="H11">
-        <v>10309.206</v>
+        <v>182.35300000000001</v>
       </c>
       <c r="I11">
-        <v>75.608999999999995</v>
+        <v>11.010999999999999</v>
       </c>
       <c r="J11">
-        <v>4551.0190000000002</v>
+        <v>1.827</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,37 +1639,37 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1010.306</v>
+        <v>37.084000000000003</v>
       </c>
       <c r="O11">
-        <v>7318.6419999999998</v>
+        <v>38.911000000000001</v>
       </c>
       <c r="P11">
-        <v>5004.6959999999999</v>
+        <v>2.3069999999999999</v>
       </c>
       <c r="Q11">
-        <v>26.524999999999999</v>
+        <v>-11.788</v>
       </c>
       <c r="R11">
-        <v>41363</v>
+        <v>37709</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2990.5639999999999</v>
+        <v>143.44200000000001</v>
       </c>
       <c r="U11">
-        <v>744.99599999999998</v>
+        <v>31.420999999999999</v>
       </c>
       <c r="V11">
-        <v>14.503</v>
+        <v>-9.6440000000000001</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-37.283000000000001</v>
+        <v>0.441</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,39 +1678,39 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>-51.103999999999999</v>
+        <v>0.34399999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41454</v>
+        <v>37800</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>-10.914</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="D12">
-        <v>626.1</v>
+        <v>52.332000000000001</v>
       </c>
       <c r="E12">
-        <v>400.428</v>
+        <v>40.442999999999998</v>
       </c>
       <c r="F12">
-        <v>387.5</v>
+        <v>18.48</v>
       </c>
       <c r="G12">
-        <v>1751.345</v>
+        <v>135.52799999999999</v>
       </c>
       <c r="H12">
-        <v>10333.203</v>
+        <v>183.24799999999999</v>
       </c>
       <c r="I12">
-        <v>74.114999999999995</v>
+        <v>10.673999999999999</v>
       </c>
       <c r="J12">
-        <v>4347.3</v>
+        <v>1.6140000000000001</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1258.923</v>
+        <v>36.515000000000001</v>
       </c>
       <c r="O12">
-        <v>7336.5690000000004</v>
+        <v>38.128999999999998</v>
       </c>
       <c r="P12">
-        <v>5004.67</v>
+        <v>2.0939999999999999</v>
       </c>
       <c r="Q12">
-        <v>213.434</v>
+        <v>8.4529999999999994</v>
       </c>
       <c r="R12">
-        <v>41454</v>
+        <v>37800</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2996.634</v>
+        <v>145.119</v>
       </c>
       <c r="U12">
-        <v>958.44399999999996</v>
+        <v>39.874000000000002</v>
       </c>
       <c r="V12">
-        <v>246.27199999999999</v>
+        <v>10.061999999999999</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-5.4359999999999999</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>2.125</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>-11</v>
+        <v>1.0189999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41545</v>
+        <v>37891</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>-1113.9000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="D13">
-        <v>606.4</v>
+        <v>52.404000000000003</v>
       </c>
       <c r="E13">
-        <v>409.3</v>
+        <v>43.831000000000003</v>
       </c>
       <c r="F13">
-        <v>377.8</v>
+        <v>18.992999999999999</v>
       </c>
       <c r="G13">
-        <v>1624.2</v>
+        <v>141.988</v>
       </c>
       <c r="H13">
-        <v>9000.7999999999993</v>
+        <v>188.60300000000001</v>
       </c>
       <c r="I13">
-        <v>80.5</v>
+        <v>10.819000000000001</v>
       </c>
       <c r="J13">
-        <v>4242.1000000000004</v>
+        <v>1.55</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1088.4000000000001</v>
+        <v>38.125999999999998</v>
       </c>
       <c r="O13">
-        <v>7059.3</v>
+        <v>39.676000000000002</v>
       </c>
       <c r="P13">
-        <v>4839.3999999999996</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="Q13">
-        <v>-135.9</v>
+        <v>5.3029999999999999</v>
       </c>
       <c r="R13">
-        <v>41545</v>
+        <v>37891</v>
       </c>
       <c r="S13">
-        <v>5615</v>
+        <v>722</v>
       </c>
       <c r="T13">
-        <v>1941.5</v>
+        <v>148.92699999999999</v>
       </c>
       <c r="U13">
-        <v>822.5</v>
+        <v>45.177</v>
       </c>
       <c r="V13">
-        <v>78</v>
+        <v>4.6779999999999999</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-193.5</v>
+        <v>1.327</v>
       </c>
       <c r="Y13">
-        <v>33.5</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>-1113.9000000000001</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41636</v>
+        <v>37982</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>-5.3</v>
+        <v>1.04</v>
       </c>
       <c r="D14">
-        <v>612.5</v>
+        <v>49.881999999999998</v>
       </c>
       <c r="E14">
-        <v>394.471</v>
+        <v>47.414999999999999</v>
       </c>
       <c r="F14">
-        <v>382.3</v>
+        <v>19.422000000000001</v>
       </c>
       <c r="G14">
-        <v>1226.9390000000001</v>
+        <v>145.90700000000001</v>
       </c>
       <c r="H14">
-        <v>8484.3080000000009</v>
+        <v>192.44800000000001</v>
       </c>
       <c r="I14">
-        <v>90.965999999999994</v>
+        <v>11.307</v>
       </c>
       <c r="J14">
-        <v>4224.732</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1765,81 +1885,81 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>-521.29999999999995</v>
+        <v>-0.17699999999999999</v>
       </c>
       <c r="N14">
-        <v>628.25699999999995</v>
+        <v>40.29</v>
       </c>
       <c r="O14">
-        <v>6533.777</v>
+        <v>41.116999999999997</v>
       </c>
       <c r="P14">
-        <v>4301.7650000000003</v>
+        <v>1.8540000000000001</v>
       </c>
       <c r="Q14">
-        <v>-380</v>
+        <v>-0.16200000000000001</v>
       </c>
       <c r="R14">
-        <v>41636</v>
+        <v>37982</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>1950.5309999999999</v>
+        <v>151.33099999999999</v>
       </c>
       <c r="U14">
-        <v>442.488</v>
+        <v>45.015000000000001</v>
       </c>
       <c r="V14">
-        <v>149.30000000000001</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-514.5</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-13.8</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>-5.3</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41727</v>
+        <v>38073</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>-16.8</v>
+        <v>2.589</v>
       </c>
       <c r="D15">
-        <v>625</v>
+        <v>55.648000000000003</v>
       </c>
       <c r="E15">
-        <v>387.63299999999998</v>
+        <v>42.308999999999997</v>
       </c>
       <c r="F15">
-        <v>385.6</v>
+        <v>20.591000000000001</v>
       </c>
       <c r="G15">
-        <v>1264.56</v>
+        <v>150.887</v>
       </c>
       <c r="H15">
-        <v>8362.3950000000004</v>
+        <v>196.78100000000001</v>
       </c>
       <c r="I15">
-        <v>68.197000000000003</v>
+        <v>9.4510000000000005</v>
       </c>
       <c r="J15">
-        <v>4183.9579999999996</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,78 +1971,78 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>550.68299999999999</v>
+        <v>40.401000000000003</v>
       </c>
       <c r="O15">
-        <v>6382.2920000000004</v>
+        <v>41.109000000000002</v>
       </c>
       <c r="P15">
-        <v>4273.4549999999999</v>
+        <v>1.69</v>
       </c>
       <c r="Q15">
-        <v>42</v>
+        <v>11.118</v>
       </c>
       <c r="R15">
-        <v>41727</v>
+        <v>38073</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1980.1030000000001</v>
+        <v>155.672</v>
       </c>
       <c r="U15">
-        <v>484.52199999999999</v>
+        <v>56.133000000000003</v>
       </c>
       <c r="V15">
-        <v>69</v>
+        <v>10.641999999999999</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-6.7</v>
+        <v>1.76</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>-16.8</v>
+        <v>2.589</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41818</v>
+        <v>38164</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>11.3</v>
+        <v>3.3250000000000002</v>
       </c>
       <c r="D16">
-        <v>632.6</v>
+        <v>59.225000000000001</v>
       </c>
       <c r="E16">
-        <v>381.7</v>
+        <v>47.759</v>
       </c>
       <c r="F16">
-        <v>393.3</v>
+        <v>22.186</v>
       </c>
       <c r="G16">
-        <v>1432.4</v>
+        <v>157.33199999999999</v>
       </c>
       <c r="H16">
-        <v>8412</v>
+        <v>202.88</v>
       </c>
       <c r="I16">
-        <v>82.3</v>
+        <v>10.891</v>
       </c>
       <c r="J16">
-        <v>4168.5</v>
+        <v>0.59</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>597.9</v>
+        <v>42.289000000000001</v>
       </c>
       <c r="O16">
-        <v>6380.7</v>
+        <v>42.878999999999998</v>
       </c>
       <c r="P16">
-        <v>4270.5</v>
+        <v>1.5329999999999999</v>
       </c>
       <c r="Q16">
-        <v>148</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="R16">
-        <v>41818</v>
+        <v>38164</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>2031.3</v>
+        <v>160.001</v>
       </c>
       <c r="U16">
-        <v>632.5</v>
+        <v>56.944000000000003</v>
       </c>
       <c r="V16">
-        <v>158.4</v>
+        <v>1.548</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>6.8</v>
+        <v>0.82</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>11.3</v>
+        <v>3.3250000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41909</v>
+        <v>38255</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>28.1</v>
+        <v>5.21</v>
       </c>
       <c r="D17">
-        <v>638.70000000000005</v>
+        <v>63.948999999999998</v>
       </c>
       <c r="E17">
-        <v>396</v>
+        <v>48.408999999999999</v>
       </c>
       <c r="F17">
-        <v>425.5</v>
+        <v>23.169</v>
       </c>
       <c r="G17">
-        <v>1565.8</v>
+        <v>166.053</v>
       </c>
       <c r="H17">
-        <v>8414.7000000000007</v>
+        <v>211.751</v>
       </c>
       <c r="I17">
-        <v>92.1</v>
+        <v>10.545999999999999</v>
       </c>
       <c r="J17">
-        <v>4153.2</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>619.6</v>
+        <v>43.326999999999998</v>
       </c>
       <c r="O17">
-        <v>6351.7</v>
+        <v>45.475999999999999</v>
       </c>
       <c r="P17">
-        <v>4301.8</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="Q17">
-        <v>103.6</v>
+        <v>11.391</v>
       </c>
       <c r="R17">
-        <v>41909</v>
+        <v>38255</v>
       </c>
       <c r="S17">
-        <v>5351</v>
+        <v>761</v>
       </c>
       <c r="T17">
-        <v>2063</v>
+        <v>166.27500000000001</v>
       </c>
       <c r="U17">
-        <v>736.1</v>
+        <v>68.334999999999994</v>
       </c>
       <c r="V17">
-        <v>131.69999999999999</v>
+        <v>13.038</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-10.7</v>
+        <v>0.438</v>
       </c>
       <c r="Y17">
-        <v>34.1</v>
+        <v>0</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>28.1</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42000</v>
+        <v>38346</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>29.2</v>
+        <v>4.5739999999999998</v>
       </c>
       <c r="D18">
-        <v>652.79999999999995</v>
+        <v>66.176000000000002</v>
       </c>
       <c r="E18">
-        <v>400.5</v>
+        <v>51.786000000000001</v>
       </c>
       <c r="F18">
-        <v>412.5</v>
+        <v>24.207999999999998</v>
       </c>
       <c r="G18">
-        <v>1336.6</v>
+        <v>168.63300000000001</v>
       </c>
       <c r="H18">
-        <v>8078.1</v>
+        <v>215.697</v>
       </c>
       <c r="I18">
-        <v>67</v>
+        <v>9.68</v>
       </c>
       <c r="J18">
-        <v>3815.4</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2097,81 +2217,81 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>-328.8</v>
+        <v>-0.12</v>
       </c>
       <c r="N18">
-        <v>607.79999999999995</v>
+        <v>42.335999999999999</v>
       </c>
       <c r="O18">
-        <v>5975.7</v>
+        <v>42.69</v>
       </c>
       <c r="P18">
-        <v>3954.8</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="Q18">
-        <v>-192.1</v>
+        <v>4.367</v>
       </c>
       <c r="R18">
-        <v>42000</v>
+        <v>38346</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>2102.4</v>
+        <v>173.00700000000001</v>
       </c>
       <c r="U18">
-        <v>544</v>
+        <v>72.701999999999998</v>
       </c>
       <c r="V18">
-        <v>153.5</v>
+        <v>5.4939999999999998</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-321.2</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>29.2</v>
+        <v>4.5739999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42091</v>
+        <v>38437</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>47.8</v>
+        <v>6.048</v>
       </c>
       <c r="D19">
-        <v>655.5</v>
+        <v>69.236999999999995</v>
       </c>
       <c r="E19">
-        <v>381</v>
+        <v>52.4</v>
       </c>
       <c r="F19">
-        <v>414.6</v>
+        <v>26.773</v>
       </c>
       <c r="G19">
-        <v>1416.3</v>
+        <v>194.042</v>
       </c>
       <c r="H19">
-        <v>8031.8</v>
+        <v>241.15700000000001</v>
       </c>
       <c r="I19">
-        <v>73.7</v>
+        <v>12.93</v>
       </c>
       <c r="J19">
-        <v>3358.1</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2183,78 +2303,78 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1044.2</v>
+        <v>53.886000000000003</v>
       </c>
       <c r="O19">
-        <v>5863.2</v>
+        <v>54.122</v>
       </c>
       <c r="P19">
-        <v>3939.8</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="Q19">
-        <v>126.5</v>
+        <v>22.989000000000001</v>
       </c>
       <c r="R19">
-        <v>42091</v>
+        <v>38437</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>2168.6</v>
+        <v>187.035</v>
       </c>
       <c r="U19">
-        <v>670.5</v>
+        <v>95.691000000000003</v>
       </c>
       <c r="V19">
-        <v>157.80000000000001</v>
+        <v>17.635000000000002</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-11.1</v>
+        <v>8</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>47.8</v>
+        <v>6.048</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42182</v>
+        <v>38528</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>29.5</v>
+        <v>8.1579999999999995</v>
       </c>
       <c r="D20">
-        <v>693.9</v>
+        <v>74.052999999999997</v>
       </c>
       <c r="E20">
-        <v>382.8</v>
+        <v>54.043999999999997</v>
       </c>
       <c r="F20">
-        <v>451.8</v>
+        <v>30.09</v>
       </c>
       <c r="G20">
-        <v>1628.8</v>
+        <v>206.899</v>
       </c>
       <c r="H20">
-        <v>8130.5</v>
+        <v>259.20499999999998</v>
       </c>
       <c r="I20">
-        <v>89.9</v>
+        <v>15.742000000000001</v>
       </c>
       <c r="J20">
-        <v>3270.8</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1189.2</v>
+        <v>60.645000000000003</v>
       </c>
       <c r="O20">
-        <v>5893.4</v>
+        <v>60.762999999999998</v>
       </c>
       <c r="P20">
-        <v>3942.3</v>
+        <v>0.59</v>
       </c>
       <c r="Q20">
-        <v>214.5</v>
+        <v>6.556</v>
       </c>
       <c r="R20">
-        <v>42182</v>
+        <v>38528</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>2237.1</v>
+        <v>198.44200000000001</v>
       </c>
       <c r="U20">
-        <v>885</v>
+        <v>102.247</v>
       </c>
       <c r="V20">
-        <v>242.3</v>
+        <v>10.129</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-11.2</v>
+        <v>3.3719999999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,39 +2425,39 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>29.4</v>
+        <v>8.1579999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42273</v>
+        <v>38619</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>25.1</v>
+        <v>9.4760000000000009</v>
       </c>
       <c r="D21">
-        <v>702.8</v>
+        <v>78.218000000000004</v>
       </c>
       <c r="E21">
-        <v>416.1</v>
+        <v>57.741999999999997</v>
       </c>
       <c r="F21">
-        <v>453.5</v>
+        <v>31.954000000000001</v>
       </c>
       <c r="G21">
-        <v>1265.8</v>
+        <v>228.375</v>
       </c>
       <c r="H21">
-        <v>7642.5</v>
+        <v>279.839</v>
       </c>
       <c r="I21">
-        <v>117</v>
+        <v>14.163</v>
       </c>
       <c r="J21">
-        <v>3221</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>943.4</v>
+        <v>55.76</v>
       </c>
       <c r="O21">
-        <v>5563.3</v>
+        <v>62.005000000000003</v>
       </c>
       <c r="P21">
-        <v>3646.2</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>-393.7</v>
+        <v>11.747</v>
       </c>
       <c r="R21">
-        <v>42273</v>
+        <v>38619</v>
       </c>
       <c r="S21">
-        <v>5290</v>
+        <v>870</v>
       </c>
       <c r="T21">
-        <v>2079.1999999999998</v>
+        <v>217.834</v>
       </c>
       <c r="U21">
-        <v>491.3</v>
+        <v>113.994</v>
       </c>
       <c r="V21">
-        <v>232.5</v>
+        <v>11.92</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-593.20000000000005</v>
+        <v>1.774</v>
       </c>
       <c r="Y21">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>2.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>25.1</v>
+        <v>9.4760000000000009</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42364</v>
+        <v>38710</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>84.9</v>
+        <v>5.7160000000000002</v>
       </c>
       <c r="D22">
-        <v>695.2</v>
+        <v>87.956000000000003</v>
       </c>
       <c r="E22">
-        <v>410.5</v>
+        <v>62.119</v>
       </c>
       <c r="F22">
-        <v>452.5</v>
+        <v>36.981999999999999</v>
       </c>
       <c r="G22">
-        <v>1387.7</v>
+        <v>217.86500000000001</v>
       </c>
       <c r="H22">
-        <v>7679.5</v>
+        <v>294.21100000000001</v>
       </c>
       <c r="I22">
-        <v>112</v>
+        <v>17.605</v>
       </c>
       <c r="J22">
-        <v>3239.1</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2429,81 +2549,81 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>-18.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>915.4</v>
+        <v>59.435000000000002</v>
       </c>
       <c r="O22">
-        <v>5513.2</v>
+        <v>59.435000000000002</v>
       </c>
       <c r="P22">
-        <v>3632.4</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>159</v>
+        <v>-19.48</v>
       </c>
       <c r="R22">
-        <v>42364</v>
+        <v>38710</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>2166.3000000000002</v>
+        <v>234.77600000000001</v>
       </c>
       <c r="U22">
-        <v>650.29999999999995</v>
+        <v>94.513999999999996</v>
       </c>
       <c r="V22">
-        <v>171.4</v>
+        <v>1.605</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-22.7</v>
+        <v>10.677</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>31.1</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>84.9</v>
+        <v>5.7160000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42455</v>
+        <v>38801</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>68.900000000000006</v>
+        <v>11.164</v>
       </c>
       <c r="D23">
-        <v>693.3</v>
+        <v>100.985</v>
       </c>
       <c r="E23">
-        <v>422.6</v>
+        <v>70.771000000000001</v>
       </c>
       <c r="F23">
-        <v>455.8</v>
+        <v>43.121000000000002</v>
       </c>
       <c r="G23">
-        <v>1092.5999999999999</v>
+        <v>256.072</v>
       </c>
       <c r="H23">
-        <v>7286.3</v>
+        <v>332.98099999999999</v>
       </c>
       <c r="I23">
-        <v>118.5</v>
+        <v>20.102</v>
       </c>
       <c r="J23">
-        <v>3098</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2515,78 +2635,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>841</v>
+        <v>65.433000000000007</v>
       </c>
       <c r="O23">
-        <v>5241.8999999999996</v>
+        <v>70.694999999999993</v>
       </c>
       <c r="P23">
-        <v>3405.7</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>-334</v>
+        <v>13.771000000000001</v>
       </c>
       <c r="R23">
-        <v>42455</v>
+        <v>38801</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>2044.4</v>
+        <v>262.286</v>
       </c>
       <c r="U23">
-        <v>316.3</v>
+        <v>108.285</v>
       </c>
       <c r="V23">
-        <v>150.9</v>
+        <v>1.474</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-458.8</v>
+        <v>15.577999999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>68.900000000000006</v>
+        <v>11.164</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42546</v>
+        <v>38892</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>84.9</v>
+        <v>12.016999999999999</v>
       </c>
       <c r="D24">
-        <v>717.4</v>
+        <v>119.685</v>
       </c>
       <c r="E24">
-        <v>426.2</v>
+        <v>86.884</v>
       </c>
       <c r="F24">
-        <v>471</v>
+        <v>50.389000000000003</v>
       </c>
       <c r="G24">
-        <v>1220</v>
+        <v>292.97399999999999</v>
       </c>
       <c r="H24">
-        <v>7306.7</v>
+        <v>401.15199999999999</v>
       </c>
       <c r="I24">
-        <v>131.19999999999999</v>
+        <v>31.622</v>
       </c>
       <c r="J24">
-        <v>3088.8</v>
+        <v>7.923</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>910.8</v>
+        <v>101.351</v>
       </c>
       <c r="O24">
-        <v>5264</v>
+        <v>118.70699999999999</v>
       </c>
       <c r="P24">
-        <v>3422.2</v>
+        <v>10.723000000000001</v>
       </c>
       <c r="Q24">
-        <v>125.2</v>
+        <v>1.855</v>
       </c>
       <c r="R24">
-        <v>42546</v>
+        <v>38892</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>2042.7</v>
+        <v>282.44499999999999</v>
       </c>
       <c r="U24">
-        <v>441.5</v>
+        <v>110.14</v>
       </c>
       <c r="V24">
-        <v>247.4</v>
+        <v>26.32</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-99.9</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,42 +2757,42 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>84.8</v>
+        <v>12.016999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42637</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>92.1</v>
+        <v>-1.474</v>
       </c>
       <c r="D25">
-        <v>726.9</v>
+        <v>154.05500000000001</v>
       </c>
       <c r="E25">
-        <v>447</v>
+        <v>108.566</v>
       </c>
       <c r="F25">
-        <v>477.3</v>
+        <v>71.924000000000007</v>
       </c>
       <c r="G25">
-        <v>1326.6</v>
+        <v>290.02199999999999</v>
       </c>
       <c r="H25">
-        <v>7317</v>
+        <v>856.20500000000004</v>
       </c>
       <c r="I25">
-        <v>156.9</v>
+        <v>26.443000000000001</v>
       </c>
       <c r="J25">
-        <v>3049.4</v>
+        <v>6.1630000000000003</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,161 +2801,161 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>901.9</v>
+        <v>166.529</v>
       </c>
       <c r="O25">
-        <v>5174.3</v>
+        <v>250.45500000000001</v>
       </c>
       <c r="P25">
-        <v>3380.2</v>
+        <v>64.084000000000003</v>
       </c>
       <c r="Q25">
-        <v>106.9</v>
+        <v>-80.216999999999999</v>
       </c>
       <c r="R25">
-        <v>42637</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>5333</v>
+        <v>1617</v>
       </c>
       <c r="T25">
-        <v>2142.6999999999998</v>
+        <v>605.75</v>
       </c>
       <c r="U25">
-        <v>548.4</v>
+        <v>29.922999999999998</v>
       </c>
       <c r="V25">
-        <v>228.5</v>
+        <v>-12.885999999999999</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-89.3</v>
+        <v>63.512999999999998</v>
       </c>
       <c r="Y25">
-        <v>34.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z25">
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>92.1</v>
+        <v>-1.474</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39081</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>86.5</v>
+        <v>16.085999999999999</v>
       </c>
       <c r="D26">
-        <v>734.4</v>
+        <v>163.21199999999999</v>
       </c>
       <c r="E26">
-        <v>419.9</v>
+        <v>108.235</v>
       </c>
       <c r="F26">
-        <v>478.3</v>
+        <v>77.427000000000007</v>
       </c>
       <c r="G26">
-        <v>2338.1</v>
+        <v>300.18599999999998</v>
       </c>
       <c r="H26">
-        <v>7337.8</v>
+        <v>867.995</v>
       </c>
       <c r="I26">
-        <v>138.69999999999999</v>
+        <v>29.436</v>
       </c>
       <c r="J26">
-        <v>2615.6</v>
+        <v>5.8479999999999999</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>-37.200000000000003</v>
+        <v>-16.405999999999999</v>
       </c>
       <c r="N26">
-        <v>1290.7</v>
+        <v>165.446</v>
       </c>
       <c r="O26">
-        <v>5109.2</v>
+        <v>240.83</v>
       </c>
       <c r="P26">
-        <v>3322.9</v>
+        <v>47.131</v>
       </c>
       <c r="Q26">
-        <v>97.6</v>
+        <v>7.3860000000000001</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39081</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>2228.6</v>
+        <v>627.16499999999996</v>
       </c>
       <c r="U26">
-        <v>646</v>
+        <v>37.308999999999997</v>
       </c>
       <c r="V26">
-        <v>169.6</v>
+        <v>31.143000000000001</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-40.4</v>
+        <v>-13.257999999999999</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>86.5</v>
+        <v>16.085999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42826</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>526.79999999999995</v>
+        <v>21.634</v>
       </c>
       <c r="D27">
-        <v>715.4</v>
+        <v>181.08600000000001</v>
       </c>
       <c r="E27">
-        <v>456.7</v>
+        <v>117.86799999999999</v>
       </c>
       <c r="F27">
-        <v>456.3</v>
+        <v>86.156999999999996</v>
       </c>
       <c r="G27">
-        <v>2051.8000000000002</v>
+        <v>309.24700000000001</v>
       </c>
       <c r="H27">
-        <v>8706.6</v>
+        <v>871.50699999999995</v>
       </c>
       <c r="I27">
-        <v>177.1</v>
+        <v>35.018999999999998</v>
       </c>
       <c r="J27">
-        <v>2233.8000000000002</v>
+        <v>7.0220000000000002</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,78 +2967,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>2375.4</v>
+        <v>135.97</v>
       </c>
       <c r="O27">
-        <v>5909.5</v>
+        <v>213.25</v>
       </c>
       <c r="P27">
-        <v>3308.4</v>
+        <v>8.8520000000000003</v>
       </c>
       <c r="Q27">
-        <v>488.6</v>
+        <v>17.192</v>
       </c>
       <c r="R27">
-        <v>42826</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>2797.1</v>
+        <v>658.25699999999995</v>
       </c>
       <c r="U27">
-        <v>1134.5999999999999</v>
+        <v>54.500999999999998</v>
       </c>
       <c r="V27">
-        <v>83.8</v>
+        <v>49.075000000000003</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-45.1</v>
+        <v>-30.745000000000001</v>
       </c>
       <c r="Y27">
-        <v>23.6</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>81.400000000000006</v>
+        <v>2.15</v>
       </c>
       <c r="AA27">
-        <v>526.79999999999995</v>
+        <v>21.634</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42917</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>59.5</v>
+        <v>24.748000000000001</v>
       </c>
       <c r="D28">
-        <v>806.1</v>
+        <v>191.505</v>
       </c>
       <c r="E28">
-        <v>520.29999999999995</v>
+        <v>131.56700000000001</v>
       </c>
       <c r="F28">
-        <v>508.3</v>
+        <v>92.768000000000001</v>
       </c>
       <c r="G28">
-        <v>1536</v>
+        <v>350.61700000000002</v>
       </c>
       <c r="H28">
-        <v>8118</v>
+        <v>933.90899999999999</v>
       </c>
       <c r="I28">
-        <v>148.69999999999999</v>
+        <v>36.808</v>
       </c>
       <c r="J28">
-        <v>2207.6</v>
+        <v>7.0640000000000001</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1812.8</v>
+        <v>165.73400000000001</v>
       </c>
       <c r="O28">
-        <v>5252.4</v>
+        <v>233.84899999999999</v>
       </c>
       <c r="P28">
-        <v>3245.7</v>
+        <v>9.6</v>
       </c>
       <c r="Q28">
-        <v>-546.20000000000005</v>
+        <v>39.298999999999999</v>
       </c>
       <c r="R28">
-        <v>42917</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>2865.6</v>
+        <v>700.06</v>
       </c>
       <c r="U28">
-        <v>588.4</v>
+        <v>93.8</v>
       </c>
       <c r="V28">
-        <v>-411.7</v>
+        <v>37.322000000000003</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-113.1</v>
+        <v>14.542999999999999</v>
       </c>
       <c r="Y28">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>59.5</v>
+        <v>24.748000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>82.7</v>
+        <v>32.11</v>
       </c>
       <c r="D29">
-        <v>802.9</v>
+        <v>202.56399999999999</v>
       </c>
       <c r="E29">
-        <v>533.5</v>
+        <v>152.74299999999999</v>
       </c>
       <c r="F29">
-        <v>514.4</v>
+        <v>100.238</v>
       </c>
       <c r="G29">
-        <v>1478.6</v>
+        <v>399.18</v>
       </c>
       <c r="H29">
-        <v>7979.6</v>
+        <v>1066.3489999999999</v>
       </c>
       <c r="I29">
-        <v>166.6</v>
+        <v>42.289000000000001</v>
       </c>
       <c r="J29">
-        <v>2172.1</v>
+        <v>9.2219999999999995</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,161 +3133,161 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1865.5</v>
+        <v>178.61199999999999</v>
       </c>
       <c r="O29">
-        <v>5194.8999999999996</v>
+        <v>260.62599999999998</v>
       </c>
       <c r="P29">
-        <v>3381.3</v>
+        <v>11.199</v>
       </c>
       <c r="Q29">
-        <v>-47.8</v>
+        <v>6.6029999999999998</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="S29">
-        <v>6233</v>
+        <v>3580</v>
       </c>
       <c r="T29">
-        <v>2784.7</v>
+        <v>805.72299999999996</v>
       </c>
       <c r="U29">
-        <v>540.6</v>
+        <v>100.40300000000001</v>
       </c>
       <c r="V29">
-        <v>166.6</v>
+        <v>35.71</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-110.6</v>
+        <v>7</v>
       </c>
       <c r="Y29">
-        <v>56.8</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>82.7</v>
+        <v>32.11</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43099</v>
+        <v>39445</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>406.7</v>
+        <v>-358.608</v>
       </c>
       <c r="D30">
-        <v>791.1</v>
+        <v>371.44499999999999</v>
       </c>
       <c r="E30">
-        <v>548</v>
+        <v>288.404</v>
       </c>
       <c r="F30">
-        <v>504.3</v>
+        <v>229.49</v>
       </c>
       <c r="G30">
-        <v>1638.4</v>
+        <v>752.87900000000002</v>
       </c>
       <c r="H30">
-        <v>8048.3</v>
+        <v>7898.6279999999997</v>
       </c>
       <c r="I30">
-        <v>160.30000000000001</v>
+        <v>60.103999999999999</v>
       </c>
       <c r="J30">
-        <v>2757.7</v>
+        <v>2033.674</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>-720</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>-1628.6</v>
+        <v>-2093.9769999999999</v>
       </c>
       <c r="N30">
-        <v>1309.9000000000001</v>
+        <v>250.4</v>
       </c>
       <c r="O30">
-        <v>4854.3</v>
+        <v>3288.886</v>
       </c>
       <c r="P30">
-        <v>3353.7</v>
+        <v>2050.8319999999999</v>
       </c>
       <c r="Q30">
-        <v>123.8</v>
+        <v>54.26</v>
       </c>
       <c r="R30">
-        <v>43099</v>
+        <v>39445</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>3194</v>
+        <v>4609.7420000000002</v>
       </c>
       <c r="U30">
-        <v>664.4</v>
+        <v>154.66300000000001</v>
       </c>
       <c r="V30">
-        <v>169.1</v>
+        <v>50.302</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-20.3</v>
+        <v>2081.8470000000002</v>
       </c>
       <c r="Y30">
-        <v>22.3</v>
+        <v>12.593999999999999</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>2.375</v>
       </c>
       <c r="AA30">
-        <v>406.7</v>
+        <v>-358.608</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>-681.4</v>
+        <v>55.985999999999997</v>
       </c>
       <c r="D31">
-        <v>789.3</v>
+        <v>431.048</v>
       </c>
       <c r="E31">
-        <v>544.20000000000005</v>
+        <v>313.45100000000002</v>
       </c>
       <c r="F31">
-        <v>494.9</v>
+        <v>264.55900000000003</v>
       </c>
       <c r="G31">
-        <v>1635.2</v>
+        <v>658.43499999999995</v>
       </c>
       <c r="H31">
-        <v>7234.4</v>
+        <v>7790.482</v>
       </c>
       <c r="I31">
-        <v>158.19999999999999</v>
+        <v>59.408999999999999</v>
       </c>
       <c r="J31">
-        <v>2739.2</v>
+        <v>1824.8620000000001</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,78 +3299,78 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1299.5999999999999</v>
+        <v>274.73500000000001</v>
       </c>
       <c r="O31">
-        <v>4788.8</v>
+        <v>3103.2950000000001</v>
       </c>
       <c r="P31">
-        <v>3374.2</v>
+        <v>1846.83</v>
       </c>
       <c r="Q31">
-        <v>-50.2</v>
+        <v>-56.86</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>2445.6</v>
+        <v>4687.1869999999999</v>
       </c>
       <c r="U31">
-        <v>614.20000000000005</v>
+        <v>97.802999999999997</v>
       </c>
       <c r="V31">
-        <v>97.4</v>
+        <v>98.713999999999999</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-115.1</v>
+        <v>-174.6</v>
       </c>
       <c r="Y31">
-        <v>21.8</v>
+        <v>18.369</v>
       </c>
       <c r="Z31">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>-681.4</v>
+        <v>55.985999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>112.9</v>
+        <v>61.378</v>
       </c>
       <c r="D32">
-        <v>824</v>
+        <v>429.49200000000002</v>
       </c>
       <c r="E32">
-        <v>551.70000000000005</v>
+        <v>313.38400000000001</v>
       </c>
       <c r="F32">
-        <v>515.4</v>
+        <v>269.33699999999999</v>
       </c>
       <c r="G32">
-        <v>1595.4</v>
+        <v>695.44</v>
       </c>
       <c r="H32">
-        <v>7091.4</v>
+        <v>7813.58</v>
       </c>
       <c r="I32">
-        <v>167.3</v>
+        <v>56.225000000000001</v>
       </c>
       <c r="J32">
-        <v>2721.9</v>
+        <v>1734.883</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1235.2</v>
+        <v>303.90899999999999</v>
       </c>
       <c r="O32">
-        <v>4641.8999999999996</v>
+        <v>3038.2440000000001</v>
       </c>
       <c r="P32">
-        <v>3270.2</v>
+        <v>1756.5360000000001</v>
       </c>
       <c r="Q32">
-        <v>-38.799999999999997</v>
+        <v>22.06</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>2449.5</v>
+        <v>4775.3360000000002</v>
       </c>
       <c r="U32">
-        <v>575.4</v>
+        <v>119.863</v>
       </c>
       <c r="V32">
-        <v>234</v>
+        <v>90.045000000000002</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-241.5</v>
+        <v>-51.734999999999999</v>
       </c>
       <c r="Y32">
-        <v>21.4</v>
+        <v>18.646999999999998</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="AA32">
-        <v>112.9</v>
+        <v>61.378999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43372</v>
+        <v>39718</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>50.5</v>
+        <v>-144.37299999999999</v>
       </c>
       <c r="D33">
-        <v>813.4</v>
+        <v>442.51299999999998</v>
       </c>
       <c r="E33">
-        <v>579.20000000000005</v>
+        <v>321.29899999999998</v>
       </c>
       <c r="F33">
-        <v>502.5</v>
+        <v>283.76600000000002</v>
       </c>
       <c r="G33">
-        <v>1723.2</v>
+        <v>693.57799999999997</v>
       </c>
       <c r="H33">
-        <v>7230.9</v>
+        <v>8134.6319999999996</v>
       </c>
       <c r="I33">
-        <v>192.2</v>
+        <v>59.59</v>
       </c>
       <c r="J33">
-        <v>2704.6</v>
+        <v>2162.42</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,161 +3465,161 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1402.6</v>
+        <v>340.875</v>
       </c>
       <c r="O33">
-        <v>4802.1000000000004</v>
+        <v>3492.3629999999998</v>
       </c>
       <c r="P33">
-        <v>3362.4</v>
+        <v>2232.0639999999999</v>
       </c>
       <c r="Q33">
-        <v>91.3</v>
+        <v>-24.202000000000002</v>
       </c>
       <c r="R33">
-        <v>43372</v>
+        <v>39718</v>
       </c>
       <c r="S33">
-        <v>6252</v>
+        <v>3933</v>
       </c>
       <c r="T33">
-        <v>2428.8000000000002</v>
+        <v>4642.2690000000002</v>
       </c>
       <c r="U33">
-        <v>666.7</v>
+        <v>95.661000000000001</v>
       </c>
       <c r="V33">
-        <v>232.4</v>
+        <v>122.53700000000001</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-27.9</v>
+        <v>455.56700000000001</v>
       </c>
       <c r="Y33">
-        <v>56.4</v>
+        <v>31.164000000000001</v>
       </c>
       <c r="Z33">
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>50.5</v>
+        <v>-144.37299999999999</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43463</v>
+        <v>39809</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>98.6</v>
+        <v>38.158000000000001</v>
       </c>
       <c r="D34">
-        <v>830.7</v>
+        <v>429.233</v>
       </c>
       <c r="E34">
-        <v>578.6</v>
+        <v>318.536</v>
       </c>
       <c r="F34">
-        <v>516.9</v>
+        <v>267.70499999999998</v>
       </c>
       <c r="G34">
-        <v>1401.9</v>
+        <v>746.81899999999996</v>
       </c>
       <c r="H34">
-        <v>6931.5</v>
+        <v>8139.3649999999998</v>
       </c>
       <c r="I34">
-        <v>176.3</v>
+        <v>54.012999999999998</v>
       </c>
       <c r="J34">
-        <v>2807.9</v>
+        <v>2134.424</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>-695</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>-1465.4</v>
+        <v>-29.332000000000001</v>
       </c>
       <c r="N34">
-        <v>1077.7</v>
+        <v>315.452</v>
       </c>
       <c r="O34">
-        <v>4537.1000000000004</v>
+        <v>3442.768</v>
       </c>
       <c r="P34">
-        <v>3149.5</v>
+        <v>2202.5790000000002</v>
       </c>
       <c r="Q34">
-        <v>-355.6</v>
+        <v>75.817999999999998</v>
       </c>
       <c r="R34">
-        <v>43463</v>
+        <v>39809</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>2394.4</v>
+        <v>4696.5969999999998</v>
       </c>
       <c r="U34">
-        <v>311.10000000000002</v>
+        <v>171.47900000000001</v>
       </c>
       <c r="V34">
-        <v>104.6</v>
+        <v>120.251</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-328.2</v>
+        <v>-28.876000000000001</v>
       </c>
       <c r="Y34">
-        <v>20.5</v>
+        <v>31.318999999999999</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>98.6</v>
+        <v>38.158000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43554</v>
+        <v>39900</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>-272.60000000000002</v>
+        <v>-2310.1190000000001</v>
       </c>
       <c r="D35">
-        <v>818.4</v>
+        <v>402.01400000000001</v>
       </c>
       <c r="E35">
-        <v>557.5</v>
+        <v>299.61399999999998</v>
       </c>
       <c r="F35">
-        <v>497.4</v>
+        <v>251.399</v>
       </c>
       <c r="G35">
-        <v>1511</v>
+        <v>795.08799999999997</v>
       </c>
       <c r="H35">
-        <v>6525.3</v>
+        <v>5783.36</v>
       </c>
       <c r="I35">
-        <v>165.2</v>
+        <v>51.712000000000003</v>
       </c>
       <c r="J35">
-        <v>2799.7</v>
+        <v>2080.848</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,78 +3631,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1045.2</v>
+        <v>307.15199999999999</v>
       </c>
       <c r="O35">
-        <v>4365.5</v>
+        <v>3381.692</v>
       </c>
       <c r="P35">
-        <v>3132.2</v>
+        <v>2114.799</v>
       </c>
       <c r="Q35">
-        <v>89.9</v>
+        <v>45.749000000000002</v>
       </c>
       <c r="R35">
-        <v>43554</v>
+        <v>39900</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>2159.8000000000002</v>
+        <v>2401.6680000000001</v>
       </c>
       <c r="U35">
-        <v>401</v>
+        <v>217.22800000000001</v>
       </c>
       <c r="V35">
-        <v>133.5</v>
+        <v>120.872</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-8</v>
+        <v>-59.393000000000001</v>
       </c>
       <c r="Y35">
-        <v>20.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-3</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="AA35">
-        <v>-272.60000000000002</v>
+        <v>-2310.1190000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43645</v>
+        <v>39991</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>93.9</v>
+        <v>30.751000000000001</v>
       </c>
       <c r="D36">
-        <v>852.4</v>
+        <v>403.12</v>
       </c>
       <c r="E36">
-        <v>586.79999999999995</v>
+        <v>279.81099999999998</v>
       </c>
       <c r="F36">
-        <v>523.4</v>
+        <v>251.91800000000001</v>
       </c>
       <c r="G36">
-        <v>1591.8</v>
+        <v>794.09799999999996</v>
       </c>
       <c r="H36">
-        <v>6522.4</v>
+        <v>5718.2449999999999</v>
       </c>
       <c r="I36">
-        <v>161.5</v>
+        <v>49.784999999999997</v>
       </c>
       <c r="J36">
-        <v>2791.6</v>
+        <v>1981.34</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1015.2</v>
+        <v>296.44499999999999</v>
       </c>
       <c r="O36">
-        <v>4305.8999999999996</v>
+        <v>3263.0720000000001</v>
       </c>
       <c r="P36">
-        <v>3075</v>
+        <v>2006.6949999999999</v>
       </c>
       <c r="Q36">
-        <v>26.9</v>
+        <v>26.492999999999999</v>
       </c>
       <c r="R36">
-        <v>43645</v>
+        <v>39991</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>2216.5</v>
+        <v>2455.1729999999998</v>
       </c>
       <c r="U36">
-        <v>427.9</v>
+        <v>243.721</v>
       </c>
       <c r="V36">
-        <v>163.69999999999999</v>
+        <v>156.31100000000001</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-104.5</v>
+        <v>-108.093</v>
       </c>
       <c r="Y36">
-        <v>19.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>-0.17499999999999999</v>
       </c>
       <c r="AA36">
-        <v>93.9</v>
+        <v>30.751000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43736</v>
+        <v>40082</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>-123.5</v>
+        <v>24.568000000000001</v>
       </c>
       <c r="D37">
-        <v>865.9</v>
+        <v>402.767</v>
       </c>
       <c r="E37">
-        <v>648.70000000000005</v>
+        <v>263.23099999999999</v>
       </c>
       <c r="F37">
-        <v>539.29999999999995</v>
+        <v>264.315</v>
       </c>
       <c r="G37">
-        <v>1793.1</v>
+        <v>818.625</v>
       </c>
       <c r="H37">
-        <v>6442.1</v>
+        <v>5684.2259999999997</v>
       </c>
       <c r="I37">
-        <v>186.5</v>
+        <v>46.588999999999999</v>
       </c>
       <c r="J37">
-        <v>2783.6</v>
+        <v>1513.8779999999999</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,161 +3797,161 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1070.0999999999999</v>
+        <v>329.29</v>
       </c>
       <c r="O37">
-        <v>4326.3999999999996</v>
+        <v>2958.2489999999998</v>
       </c>
       <c r="P37">
-        <v>3109.7</v>
+        <v>1583.9010000000001</v>
       </c>
       <c r="Q37">
-        <v>173.9</v>
+        <v>49.465000000000003</v>
       </c>
       <c r="R37">
-        <v>43736</v>
+        <v>40082</v>
       </c>
       <c r="S37">
-        <v>6478</v>
+        <v>3959</v>
       </c>
       <c r="T37">
-        <v>2115.6999999999998</v>
+        <v>2725.9769999999999</v>
       </c>
       <c r="U37">
-        <v>601.79999999999995</v>
+        <v>293.18599999999998</v>
       </c>
       <c r="V37">
-        <v>247.7</v>
+        <v>153.02199999999999</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>9.1999999999999993</v>
+        <v>-92.262</v>
       </c>
       <c r="Y37">
-        <v>52.9</v>
+        <v>31.65</v>
       </c>
       <c r="Z37">
-        <v>-18.2</v>
+        <v>-0.15</v>
       </c>
       <c r="AA37">
-        <v>-123.5</v>
+        <v>24.568000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43827</v>
+        <v>40173</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>386.1</v>
+        <v>26.094999999999999</v>
       </c>
       <c r="D38">
-        <v>850.5</v>
+        <v>412.44799999999998</v>
       </c>
       <c r="E38">
-        <v>581.79999999999995</v>
+        <v>263.226</v>
       </c>
       <c r="F38">
-        <v>523.20000000000005</v>
+        <v>259.96499999999997</v>
       </c>
       <c r="G38">
-        <v>1637.6</v>
+        <v>878.84199999999998</v>
       </c>
       <c r="H38">
-        <v>6311.9</v>
+        <v>5682.2240000000002</v>
       </c>
       <c r="I38">
-        <v>123.7</v>
+        <v>48.817999999999998</v>
       </c>
       <c r="J38">
-        <v>2769.4</v>
+        <v>1482.3710000000001</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>-1.8420000000000001</v>
       </c>
       <c r="M38">
-        <v>-9.8000000000000007</v>
+        <v>-54.643999999999998</v>
       </c>
       <c r="N38">
-        <v>1043.3</v>
+        <v>338.23200000000003</v>
       </c>
       <c r="O38">
-        <v>4054.2</v>
+        <v>2924.6570000000002</v>
       </c>
       <c r="P38">
-        <v>3186.7</v>
+        <v>1513.597</v>
       </c>
       <c r="Q38">
-        <v>-220.3</v>
+        <v>51.856000000000002</v>
       </c>
       <c r="R38">
-        <v>43827</v>
+        <v>40173</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>2257.6999999999998</v>
+        <v>2757.567</v>
       </c>
       <c r="U38">
-        <v>370.8</v>
+        <v>345.04199999999997</v>
       </c>
       <c r="V38">
-        <v>113.9</v>
+        <v>126.027</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-289.89999999999998</v>
+        <v>-58.814</v>
       </c>
       <c r="Y38">
-        <v>91.1</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>-0.125</v>
       </c>
       <c r="AA38">
-        <v>386.1</v>
+        <v>26.094999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43918</v>
+        <v>40264</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>96.4</v>
+        <v>20.617999999999999</v>
       </c>
       <c r="D39">
-        <v>756.1</v>
+        <v>418.11200000000002</v>
       </c>
       <c r="E39">
-        <v>597.20000000000005</v>
+        <v>266.80599999999998</v>
       </c>
       <c r="F39">
-        <v>458.7</v>
+        <v>257.16500000000002</v>
       </c>
       <c r="G39">
-        <v>1936.6</v>
+        <v>1000.948</v>
       </c>
       <c r="H39">
-        <v>6821.8</v>
+        <v>5739.8739999999998</v>
       </c>
       <c r="I39">
-        <v>134.4</v>
+        <v>49.69</v>
       </c>
       <c r="J39">
-        <v>2769.8</v>
+        <v>1410.5309999999999</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3963,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1480.9</v>
+        <v>445.89</v>
       </c>
       <c r="O39">
-        <v>4730.6000000000004</v>
+        <v>2949.9</v>
       </c>
       <c r="P39">
-        <v>3689.3</v>
+        <v>1458.8240000000001</v>
       </c>
       <c r="Q39">
-        <v>418.3</v>
+        <v>86.272999999999996</v>
       </c>
       <c r="R39">
-        <v>43918</v>
+        <v>40264</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>2091.1999999999998</v>
+        <v>2789.9740000000002</v>
       </c>
       <c r="U39">
-        <v>799.8</v>
+        <v>431.315</v>
       </c>
       <c r="V39">
-        <v>117.7</v>
+        <v>94.632000000000005</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>222.6</v>
+        <v>-63.936999999999998</v>
       </c>
       <c r="Y39">
-        <v>87.1</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="AA39">
-        <v>96.3</v>
+        <v>20.617999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44009</v>
+        <v>40355</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>137.80000000000001</v>
+        <v>27.448</v>
       </c>
       <c r="D40">
-        <v>822.9</v>
+        <v>420.69299999999998</v>
       </c>
       <c r="E40">
-        <v>728</v>
+        <v>261.51799999999997</v>
       </c>
       <c r="F40">
-        <v>529</v>
+        <v>253.41300000000001</v>
       </c>
       <c r="G40">
-        <v>1982.8</v>
+        <v>1048.5709999999999</v>
       </c>
       <c r="H40">
-        <v>6803.1</v>
+        <v>5730.87</v>
       </c>
       <c r="I40">
-        <v>127.3</v>
+        <v>52.249000000000002</v>
       </c>
       <c r="J40">
-        <v>2754.9</v>
+        <v>1428.6880000000001</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1345.7</v>
+        <v>393.93900000000002</v>
       </c>
       <c r="O40">
-        <v>4544.5</v>
+        <v>2910.5149999999999</v>
       </c>
       <c r="P40">
-        <v>3436.7</v>
+        <v>1430.0340000000001</v>
       </c>
       <c r="Q40">
-        <v>-55.6</v>
+        <v>60.052999999999997</v>
       </c>
       <c r="R40">
-        <v>44009</v>
+        <v>40355</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>2258.6</v>
+        <v>2820.355</v>
       </c>
       <c r="U40">
-        <v>744.2</v>
+        <v>491.36799999999999</v>
       </c>
       <c r="V40">
-        <v>223</v>
+        <v>117.282</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-241.7</v>
+        <v>-46.003</v>
       </c>
       <c r="Y40">
-        <v>86.2</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>0.432</v>
       </c>
       <c r="AA40">
-        <v>137.9</v>
+        <v>27.448</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44100</v>
+        <v>40446</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>494.9</v>
+        <v>-136.97399999999999</v>
       </c>
       <c r="D41">
-        <v>1346.9</v>
+        <v>428.29899999999998</v>
       </c>
       <c r="E41">
-        <v>1028.9000000000001</v>
+        <v>283.10300000000001</v>
       </c>
       <c r="F41">
-        <v>1002.4</v>
+        <v>278.69200000000001</v>
       </c>
       <c r="G41">
-        <v>2222.3000000000002</v>
+        <v>1098.8810000000001</v>
       </c>
       <c r="H41">
-        <v>7195.8</v>
+        <v>5625.8339999999998</v>
       </c>
       <c r="I41">
-        <v>178.8</v>
+        <v>57.48</v>
       </c>
       <c r="J41">
-        <v>2736.9</v>
+        <v>1447.0530000000001</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1239.3</v>
+        <v>441.91199999999998</v>
       </c>
       <c r="O41">
-        <v>4488.5</v>
+        <v>2927.2849999999999</v>
       </c>
       <c r="P41">
-        <v>3170.2</v>
+        <v>1480.741</v>
       </c>
       <c r="Q41">
-        <v>-43.2</v>
+        <v>24.257000000000001</v>
       </c>
       <c r="R41">
-        <v>44100</v>
+        <v>40446</v>
       </c>
       <c r="S41">
-        <v>5814</v>
+        <v>4220</v>
       </c>
       <c r="T41">
-        <v>2707.3</v>
+        <v>2698.549</v>
       </c>
       <c r="U41">
-        <v>701</v>
+        <v>515.625</v>
       </c>
       <c r="V41">
-        <v>442</v>
+        <v>118.771</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-350.9</v>
+        <v>1.179</v>
       </c>
       <c r="Y41">
-        <v>83</v>
+        <v>32.326000000000001</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="AA41">
-        <v>494.9</v>
+        <v>-136.97399999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44191</v>
+        <v>40537</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>10.94</v>
+      </c>
+      <c r="D42">
+        <v>432.57100000000003</v>
+      </c>
+      <c r="E42">
+        <v>274.43700000000001</v>
+      </c>
+      <c r="F42">
+        <v>266.846</v>
+      </c>
+      <c r="G42">
+        <v>1185.2</v>
+      </c>
+      <c r="H42">
+        <v>5665.5789999999997</v>
+      </c>
+      <c r="I42">
+        <v>63.975999999999999</v>
+      </c>
+      <c r="J42">
+        <v>1434.1320000000001</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>-0.33500000000000002</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>436.21499999999997</v>
+      </c>
+      <c r="O42">
+        <v>2911.5630000000001</v>
+      </c>
+      <c r="P42">
+        <v>1435.1590000000001</v>
+      </c>
+      <c r="Q42">
+        <v>92.411000000000001</v>
+      </c>
+      <c r="R42">
+        <v>40537</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>2754.0160000000001</v>
+      </c>
+      <c r="U42">
+        <v>608.03599999999994</v>
+      </c>
+      <c r="V42">
+        <v>135.321</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-6.0789999999999997</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-0.15</v>
+      </c>
+      <c r="AA42">
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40628</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>82.444999999999993</v>
+      </c>
+      <c r="D43">
+        <v>438.65100000000001</v>
+      </c>
+      <c r="E43">
+        <v>285.91699999999997</v>
+      </c>
+      <c r="F43">
+        <v>265.17599999999999</v>
+      </c>
+      <c r="G43">
+        <v>1158.921</v>
+      </c>
+      <c r="H43">
+        <v>5836.2430000000004</v>
+      </c>
+      <c r="I43">
+        <v>60.72</v>
+      </c>
+      <c r="J43">
+        <v>1451.8820000000001</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>406.78</v>
+      </c>
+      <c r="O43">
+        <v>2980.8069999999998</v>
+      </c>
+      <c r="P43">
+        <v>1452.5709999999999</v>
+      </c>
+      <c r="Q43">
+        <v>-35.118000000000002</v>
+      </c>
+      <c r="R43">
+        <v>40628</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2855.4360000000001</v>
+      </c>
+      <c r="U43">
+        <v>572.91800000000001</v>
+      </c>
+      <c r="V43">
+        <v>81.87</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>5.0069999999999997</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="AA43">
+        <v>82.444999999999993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40719</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>36.195999999999998</v>
+      </c>
+      <c r="D44">
+        <v>451.08199999999999</v>
+      </c>
+      <c r="E44">
+        <v>292.32400000000001</v>
+      </c>
+      <c r="F44">
+        <v>279.43799999999999</v>
+      </c>
+      <c r="G44">
+        <v>1207.796</v>
+      </c>
+      <c r="H44">
+        <v>5937.223</v>
+      </c>
+      <c r="I44">
+        <v>51.793999999999997</v>
+      </c>
+      <c r="J44">
+        <v>1470.11</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>467.13799999999998</v>
+      </c>
+      <c r="O44">
+        <v>3026.93</v>
+      </c>
+      <c r="P44">
+        <v>1470.4570000000001</v>
+      </c>
+      <c r="Q44">
+        <v>40.883000000000003</v>
+      </c>
+      <c r="R44">
+        <v>40719</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2910.2930000000001</v>
+      </c>
+      <c r="U44">
+        <v>613.80100000000004</v>
+      </c>
+      <c r="V44">
+        <v>119.92400000000001</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>7.3869999999999996</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>36.195999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40810</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>27.568999999999999</v>
+      </c>
+      <c r="D45">
+        <v>467.04500000000002</v>
+      </c>
+      <c r="E45">
+        <v>318.71199999999999</v>
+      </c>
+      <c r="F45">
+        <v>311.17700000000002</v>
+      </c>
+      <c r="G45">
+        <v>1342.9</v>
+      </c>
+      <c r="H45">
+        <v>6008.78</v>
+      </c>
+      <c r="I45">
+        <v>63.466999999999999</v>
+      </c>
+      <c r="J45">
+        <v>1488.58</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>509.45</v>
+      </c>
+      <c r="O45">
+        <v>3071.8850000000002</v>
+      </c>
+      <c r="P45">
+        <v>1521.4259999999999</v>
+      </c>
+      <c r="Q45">
+        <v>98.531000000000006</v>
+      </c>
+      <c r="R45">
+        <v>40810</v>
+      </c>
+      <c r="S45">
+        <v>5019</v>
+      </c>
+      <c r="T45">
+        <v>2936.895</v>
+      </c>
+      <c r="U45">
+        <v>712.33199999999999</v>
+      </c>
+      <c r="V45">
+        <v>118.90900000000001</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>1.359</v>
+      </c>
+      <c r="Y45">
+        <v>32.845999999999997</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>27.568999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40901</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>20.812000000000001</v>
+      </c>
+      <c r="D46">
+        <v>472.71100000000001</v>
+      </c>
+      <c r="E46">
+        <v>324.22199999999998</v>
+      </c>
+      <c r="F46">
+        <v>295.541</v>
+      </c>
+      <c r="G46">
+        <v>1437.297</v>
+      </c>
+      <c r="H46">
+        <v>6046.0839999999998</v>
+      </c>
+      <c r="I46">
+        <v>62.85</v>
+      </c>
+      <c r="J46">
+        <v>1507.5329999999999</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>511.745</v>
+      </c>
+      <c r="O46">
+        <v>3082.2959999999998</v>
+      </c>
+      <c r="P46">
+        <v>1507.5329999999999</v>
+      </c>
+      <c r="Q46">
+        <v>80.75</v>
+      </c>
+      <c r="R46">
+        <v>40901</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>2963.788</v>
+      </c>
+      <c r="U46">
+        <v>793.08199999999999</v>
+      </c>
+      <c r="V46">
+        <v>111.73099999999999</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-6.3140000000000001</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-0.15</v>
+      </c>
+      <c r="AA46">
+        <v>20.812000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40992</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>-40.273000000000003</v>
+      </c>
+      <c r="D47">
+        <v>471.16500000000002</v>
+      </c>
+      <c r="E47">
+        <v>326.29000000000002</v>
+      </c>
+      <c r="F47">
+        <v>288.351</v>
+      </c>
+      <c r="G47">
+        <v>1491.0309999999999</v>
+      </c>
+      <c r="H47">
+        <v>6048.2560000000003</v>
+      </c>
+      <c r="I47">
+        <v>65.843000000000004</v>
+      </c>
+      <c r="J47">
+        <v>1527.027</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>593.822</v>
+      </c>
+      <c r="O47">
+        <v>3068.7730000000001</v>
+      </c>
+      <c r="P47">
+        <v>1527.027</v>
+      </c>
+      <c r="Q47">
+        <v>61.478999999999999</v>
+      </c>
+      <c r="R47">
+        <v>40992</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2979.4830000000002</v>
+      </c>
+      <c r="U47">
+        <v>854.56100000000004</v>
+      </c>
+      <c r="V47">
+        <v>101.104</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-33.811999999999998</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-0.1</v>
+      </c>
+      <c r="AA47">
+        <v>-40.273000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41083</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>23.594000000000001</v>
+      </c>
+      <c r="D48">
+        <v>470.22800000000001</v>
+      </c>
+      <c r="E48">
+        <v>336.43700000000001</v>
+      </c>
+      <c r="F48">
+        <v>289.92</v>
+      </c>
+      <c r="G48">
+        <v>1534.9839999999999</v>
+      </c>
+      <c r="H48">
+        <v>6026.7939999999999</v>
+      </c>
+      <c r="I48">
+        <v>55.064</v>
+      </c>
+      <c r="J48">
+        <v>1542.146</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>557.10699999999997</v>
+      </c>
+      <c r="O48">
+        <v>3022.5430000000001</v>
+      </c>
+      <c r="P48">
+        <v>1542.146</v>
+      </c>
+      <c r="Q48">
+        <v>50.521000000000001</v>
+      </c>
+      <c r="R48">
+        <v>41083</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>3004.2510000000002</v>
+      </c>
+      <c r="U48">
+        <v>905.08199999999999</v>
+      </c>
+      <c r="V48">
+        <v>71.796000000000006</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>23.594000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41181</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>-77.766999999999996</v>
+      </c>
+      <c r="D49">
+        <v>588.548</v>
+      </c>
+      <c r="E49">
+        <v>409.33300000000003</v>
+      </c>
+      <c r="F49">
+        <v>378.17099999999999</v>
+      </c>
+      <c r="G49">
+        <v>1563.0139999999999</v>
+      </c>
+      <c r="H49">
+        <v>10477.108</v>
+      </c>
+      <c r="I49">
+        <v>87.222999999999999</v>
+      </c>
+      <c r="J49">
+        <v>4971.1790000000001</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>661.34900000000005</v>
+      </c>
+      <c r="O49">
+        <v>7516.0770000000002</v>
+      </c>
+      <c r="P49">
+        <v>5068.87</v>
+      </c>
+      <c r="Q49">
+        <v>-344.65199999999999</v>
+      </c>
+      <c r="R49">
+        <v>41181</v>
+      </c>
+      <c r="S49">
+        <v>6157</v>
+      </c>
+      <c r="T49">
+        <v>2961.0309999999999</v>
+      </c>
+      <c r="U49">
+        <v>560.42999999999995</v>
+      </c>
+      <c r="V49">
+        <v>85.590999999999994</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>3367.8620000000001</v>
+      </c>
+      <c r="Y49">
+        <v>33.256</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>-77.766999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41272</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>3.1179999999999999</v>
+      </c>
+      <c r="D50">
+        <v>631.36199999999997</v>
+      </c>
+      <c r="E50">
+        <v>405.65300000000002</v>
+      </c>
+      <c r="F50">
+        <v>386.83600000000001</v>
+      </c>
+      <c r="G50">
+        <v>1660.2360000000001</v>
+      </c>
+      <c r="H50">
+        <v>10468.555</v>
+      </c>
+      <c r="I50">
+        <v>76.367000000000004</v>
+      </c>
+      <c r="J50">
+        <v>4237.085</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>-16.25</v>
+      </c>
+      <c r="N50">
+        <v>1551.7529999999999</v>
+      </c>
+      <c r="O50">
+        <v>7484.1790000000001</v>
+      </c>
+      <c r="P50">
+        <v>5036.0219999999999</v>
+      </c>
+      <c r="Q50">
+        <v>158.041</v>
+      </c>
+      <c r="R50">
+        <v>41272</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>2984.3760000000002</v>
+      </c>
+      <c r="U50">
+        <v>718.471</v>
+      </c>
+      <c r="V50">
+        <v>155.02500000000001</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-12.581</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-3.625</v>
+      </c>
+      <c r="AA50">
+        <v>3.1179999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41363</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>-51.103999999999999</v>
+      </c>
+      <c r="D51">
+        <v>612.66300000000001</v>
+      </c>
+      <c r="E51">
+        <v>401.30099999999999</v>
+      </c>
+      <c r="F51">
+        <v>377.55900000000003</v>
+      </c>
+      <c r="G51">
+        <v>1607.248</v>
+      </c>
+      <c r="H51">
+        <v>10309.206</v>
+      </c>
+      <c r="I51">
+        <v>75.608999999999995</v>
+      </c>
+      <c r="J51">
+        <v>4551.0190000000002</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1010.306</v>
+      </c>
+      <c r="O51">
+        <v>7318.6419999999998</v>
+      </c>
+      <c r="P51">
+        <v>5004.6959999999999</v>
+      </c>
+      <c r="Q51">
+        <v>26.524999999999999</v>
+      </c>
+      <c r="R51">
+        <v>41363</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>2990.5639999999999</v>
+      </c>
+      <c r="U51">
+        <v>744.99599999999998</v>
+      </c>
+      <c r="V51">
+        <v>14.503</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-37.283000000000001</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>-51.103999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41454</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>-10.914</v>
+      </c>
+      <c r="D52">
+        <v>626.1</v>
+      </c>
+      <c r="E52">
+        <v>400.428</v>
+      </c>
+      <c r="F52">
+        <v>387.5</v>
+      </c>
+      <c r="G52">
+        <v>1751.345</v>
+      </c>
+      <c r="H52">
+        <v>10333.203</v>
+      </c>
+      <c r="I52">
+        <v>74.114999999999995</v>
+      </c>
+      <c r="J52">
+        <v>4347.3</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1258.923</v>
+      </c>
+      <c r="O52">
+        <v>7336.5690000000004</v>
+      </c>
+      <c r="P52">
+        <v>5004.67</v>
+      </c>
+      <c r="Q52">
+        <v>213.434</v>
+      </c>
+      <c r="R52">
+        <v>41454</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>2996.634</v>
+      </c>
+      <c r="U52">
+        <v>958.44399999999996</v>
+      </c>
+      <c r="V52">
+        <v>246.27199999999999</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-5.4359999999999999</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>2.125</v>
+      </c>
+      <c r="AA52">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41545</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>-1113.9000000000001</v>
+      </c>
+      <c r="D53">
+        <v>606.4</v>
+      </c>
+      <c r="E53">
+        <v>409.3</v>
+      </c>
+      <c r="F53">
+        <v>377.8</v>
+      </c>
+      <c r="G53">
+        <v>1624.2</v>
+      </c>
+      <c r="H53">
+        <v>9000.7999999999993</v>
+      </c>
+      <c r="I53">
+        <v>80.5</v>
+      </c>
+      <c r="J53">
+        <v>4242.1000000000004</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1088.4000000000001</v>
+      </c>
+      <c r="O53">
+        <v>7059.3</v>
+      </c>
+      <c r="P53">
+        <v>4839.3999999999996</v>
+      </c>
+      <c r="Q53">
+        <v>-135.9</v>
+      </c>
+      <c r="R53">
+        <v>41545</v>
+      </c>
+      <c r="S53">
+        <v>5615</v>
+      </c>
+      <c r="T53">
+        <v>1941.5</v>
+      </c>
+      <c r="U53">
+        <v>822.5</v>
+      </c>
+      <c r="V53">
+        <v>78</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-193.5</v>
+      </c>
+      <c r="Y53">
+        <v>33.5</v>
+      </c>
+      <c r="Z53">
+        <v>-0.1</v>
+      </c>
+      <c r="AA53">
+        <v>-1113.9000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41636</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>-5.3</v>
+      </c>
+      <c r="D54">
+        <v>612.5</v>
+      </c>
+      <c r="E54">
+        <v>394.471</v>
+      </c>
+      <c r="F54">
+        <v>382.3</v>
+      </c>
+      <c r="G54">
+        <v>1226.9390000000001</v>
+      </c>
+      <c r="H54">
+        <v>8484.3080000000009</v>
+      </c>
+      <c r="I54">
+        <v>90.965999999999994</v>
+      </c>
+      <c r="J54">
+        <v>4224.732</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>-521.29999999999995</v>
+      </c>
+      <c r="N54">
+        <v>628.25699999999995</v>
+      </c>
+      <c r="O54">
+        <v>6533.777</v>
+      </c>
+      <c r="P54">
+        <v>4301.7650000000003</v>
+      </c>
+      <c r="Q54">
+        <v>-380</v>
+      </c>
+      <c r="R54">
+        <v>41636</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>1950.5309999999999</v>
+      </c>
+      <c r="U54">
+        <v>442.488</v>
+      </c>
+      <c r="V54">
+        <v>149.30000000000001</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-514.5</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-13.8</v>
+      </c>
+      <c r="AA54">
+        <v>-5.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41727</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>-16.8</v>
+      </c>
+      <c r="D55">
+        <v>625</v>
+      </c>
+      <c r="E55">
+        <v>387.63299999999998</v>
+      </c>
+      <c r="F55">
+        <v>385.6</v>
+      </c>
+      <c r="G55">
+        <v>1264.56</v>
+      </c>
+      <c r="H55">
+        <v>8362.3950000000004</v>
+      </c>
+      <c r="I55">
+        <v>68.197000000000003</v>
+      </c>
+      <c r="J55">
+        <v>4183.9579999999996</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>550.68299999999999</v>
+      </c>
+      <c r="O55">
+        <v>6382.2920000000004</v>
+      </c>
+      <c r="P55">
+        <v>4273.4549999999999</v>
+      </c>
+      <c r="Q55">
+        <v>42</v>
+      </c>
+      <c r="R55">
+        <v>41727</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1980.1030000000001</v>
+      </c>
+      <c r="U55">
+        <v>484.52199999999999</v>
+      </c>
+      <c r="V55">
+        <v>69</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-6.7</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>2.7</v>
+      </c>
+      <c r="AA55">
+        <v>-16.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41818</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>11.3</v>
+      </c>
+      <c r="D56">
+        <v>632.6</v>
+      </c>
+      <c r="E56">
+        <v>381.7</v>
+      </c>
+      <c r="F56">
+        <v>393.3</v>
+      </c>
+      <c r="G56">
+        <v>1432.4</v>
+      </c>
+      <c r="H56">
+        <v>8412</v>
+      </c>
+      <c r="I56">
+        <v>82.3</v>
+      </c>
+      <c r="J56">
+        <v>4168.5</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>597.9</v>
+      </c>
+      <c r="O56">
+        <v>6380.7</v>
+      </c>
+      <c r="P56">
+        <v>4270.5</v>
+      </c>
+      <c r="Q56">
+        <v>148</v>
+      </c>
+      <c r="R56">
+        <v>41818</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>2031.3</v>
+      </c>
+      <c r="U56">
+        <v>632.5</v>
+      </c>
+      <c r="V56">
+        <v>158.4</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>6.8</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>3.8</v>
+      </c>
+      <c r="AA56">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41909</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>28.1</v>
+      </c>
+      <c r="D57">
+        <v>638.70000000000005</v>
+      </c>
+      <c r="E57">
+        <v>396</v>
+      </c>
+      <c r="F57">
+        <v>425.5</v>
+      </c>
+      <c r="G57">
+        <v>1565.8</v>
+      </c>
+      <c r="H57">
+        <v>8414.7000000000007</v>
+      </c>
+      <c r="I57">
+        <v>92.1</v>
+      </c>
+      <c r="J57">
+        <v>4153.2</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>619.6</v>
+      </c>
+      <c r="O57">
+        <v>6351.7</v>
+      </c>
+      <c r="P57">
+        <v>4301.8</v>
+      </c>
+      <c r="Q57">
+        <v>103.6</v>
+      </c>
+      <c r="R57">
+        <v>41909</v>
+      </c>
+      <c r="S57">
+        <v>5351</v>
+      </c>
+      <c r="T57">
+        <v>2063</v>
+      </c>
+      <c r="U57">
+        <v>736.1</v>
+      </c>
+      <c r="V57">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-10.7</v>
+      </c>
+      <c r="Y57">
+        <v>34.1</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42000</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>29.2</v>
+      </c>
+      <c r="D58">
+        <v>652.79999999999995</v>
+      </c>
+      <c r="E58">
+        <v>400.5</v>
+      </c>
+      <c r="F58">
+        <v>412.5</v>
+      </c>
+      <c r="G58">
+        <v>1336.6</v>
+      </c>
+      <c r="H58">
+        <v>8078.1</v>
+      </c>
+      <c r="I58">
+        <v>67</v>
+      </c>
+      <c r="J58">
+        <v>3815.4</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>-328.8</v>
+      </c>
+      <c r="N58">
+        <v>607.79999999999995</v>
+      </c>
+      <c r="O58">
+        <v>5975.7</v>
+      </c>
+      <c r="P58">
+        <v>3954.8</v>
+      </c>
+      <c r="Q58">
+        <v>-192.1</v>
+      </c>
+      <c r="R58">
+        <v>42000</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>2102.4</v>
+      </c>
+      <c r="U58">
+        <v>544</v>
+      </c>
+      <c r="V58">
+        <v>153.5</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-321.2</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>6.4</v>
+      </c>
+      <c r="AA58">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42091</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>47.8</v>
+      </c>
+      <c r="D59">
+        <v>655.5</v>
+      </c>
+      <c r="E59">
+        <v>381</v>
+      </c>
+      <c r="F59">
+        <v>414.6</v>
+      </c>
+      <c r="G59">
+        <v>1416.3</v>
+      </c>
+      <c r="H59">
+        <v>8031.8</v>
+      </c>
+      <c r="I59">
+        <v>73.7</v>
+      </c>
+      <c r="J59">
+        <v>3358.1</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1044.2</v>
+      </c>
+      <c r="O59">
+        <v>5863.2</v>
+      </c>
+      <c r="P59">
+        <v>3939.8</v>
+      </c>
+      <c r="Q59">
+        <v>126.5</v>
+      </c>
+      <c r="R59">
+        <v>42091</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>2168.6</v>
+      </c>
+      <c r="U59">
+        <v>670.5</v>
+      </c>
+      <c r="V59">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-11.1</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>1.3</v>
+      </c>
+      <c r="AA59">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42182</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>29.5</v>
+      </c>
+      <c r="D60">
+        <v>693.9</v>
+      </c>
+      <c r="E60">
+        <v>382.8</v>
+      </c>
+      <c r="F60">
+        <v>451.8</v>
+      </c>
+      <c r="G60">
+        <v>1628.8</v>
+      </c>
+      <c r="H60">
+        <v>8130.5</v>
+      </c>
+      <c r="I60">
+        <v>89.9</v>
+      </c>
+      <c r="J60">
+        <v>3270.8</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1189.2</v>
+      </c>
+      <c r="O60">
+        <v>5893.4</v>
+      </c>
+      <c r="P60">
+        <v>3942.3</v>
+      </c>
+      <c r="Q60">
+        <v>214.5</v>
+      </c>
+      <c r="R60">
+        <v>42182</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>2237.1</v>
+      </c>
+      <c r="U60">
+        <v>885</v>
+      </c>
+      <c r="V60">
+        <v>242.3</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-11.2</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42273</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>25.1</v>
+      </c>
+      <c r="D61">
+        <v>702.8</v>
+      </c>
+      <c r="E61">
+        <v>416.1</v>
+      </c>
+      <c r="F61">
+        <v>453.5</v>
+      </c>
+      <c r="G61">
+        <v>1265.8</v>
+      </c>
+      <c r="H61">
+        <v>7642.5</v>
+      </c>
+      <c r="I61">
+        <v>117</v>
+      </c>
+      <c r="J61">
+        <v>3221</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>943.4</v>
+      </c>
+      <c r="O61">
+        <v>5563.3</v>
+      </c>
+      <c r="P61">
+        <v>3646.2</v>
+      </c>
+      <c r="Q61">
+        <v>-393.7</v>
+      </c>
+      <c r="R61">
+        <v>42273</v>
+      </c>
+      <c r="S61">
+        <v>5290</v>
+      </c>
+      <c r="T61">
+        <v>2079.1999999999998</v>
+      </c>
+      <c r="U61">
+        <v>491.3</v>
+      </c>
+      <c r="V61">
+        <v>232.5</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-593.20000000000005</v>
+      </c>
+      <c r="Y61">
+        <v>34</v>
+      </c>
+      <c r="Z61">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AA61">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42364</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>84.9</v>
+      </c>
+      <c r="D62">
+        <v>695.2</v>
+      </c>
+      <c r="E62">
+        <v>410.5</v>
+      </c>
+      <c r="F62">
+        <v>452.5</v>
+      </c>
+      <c r="G62">
+        <v>1387.7</v>
+      </c>
+      <c r="H62">
+        <v>7679.5</v>
+      </c>
+      <c r="I62">
+        <v>112</v>
+      </c>
+      <c r="J62">
+        <v>3239.1</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="N62">
+        <v>915.4</v>
+      </c>
+      <c r="O62">
+        <v>5513.2</v>
+      </c>
+      <c r="P62">
+        <v>3632.4</v>
+      </c>
+      <c r="Q62">
+        <v>159</v>
+      </c>
+      <c r="R62">
+        <v>42364</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>2166.3000000000002</v>
+      </c>
+      <c r="U62">
+        <v>650.29999999999995</v>
+      </c>
+      <c r="V62">
+        <v>171.4</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-22.7</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>31.1</v>
+      </c>
+      <c r="AA62">
+        <v>84.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42455</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="D63">
+        <v>693.3</v>
+      </c>
+      <c r="E63">
+        <v>422.6</v>
+      </c>
+      <c r="F63">
+        <v>455.8</v>
+      </c>
+      <c r="G63">
+        <v>1092.5999999999999</v>
+      </c>
+      <c r="H63">
+        <v>7286.3</v>
+      </c>
+      <c r="I63">
+        <v>118.5</v>
+      </c>
+      <c r="J63">
+        <v>3098</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>841</v>
+      </c>
+      <c r="O63">
+        <v>5241.8999999999996</v>
+      </c>
+      <c r="P63">
+        <v>3405.7</v>
+      </c>
+      <c r="Q63">
+        <v>-334</v>
+      </c>
+      <c r="R63">
+        <v>42455</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>2044.4</v>
+      </c>
+      <c r="U63">
+        <v>316.3</v>
+      </c>
+      <c r="V63">
+        <v>150.9</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-458.8</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>5.2</v>
+      </c>
+      <c r="AA63">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42546</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>84.9</v>
+      </c>
+      <c r="D64">
+        <v>717.4</v>
+      </c>
+      <c r="E64">
+        <v>426.2</v>
+      </c>
+      <c r="F64">
+        <v>471</v>
+      </c>
+      <c r="G64">
+        <v>1220</v>
+      </c>
+      <c r="H64">
+        <v>7306.7</v>
+      </c>
+      <c r="I64">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="J64">
+        <v>3088.8</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>910.8</v>
+      </c>
+      <c r="O64">
+        <v>5264</v>
+      </c>
+      <c r="P64">
+        <v>3422.2</v>
+      </c>
+      <c r="Q64">
+        <v>125.2</v>
+      </c>
+      <c r="R64">
+        <v>42546</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>2042.7</v>
+      </c>
+      <c r="U64">
+        <v>441.5</v>
+      </c>
+      <c r="V64">
+        <v>247.4</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-99.9</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42637</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>92.1</v>
+      </c>
+      <c r="D65">
+        <v>726.9</v>
+      </c>
+      <c r="E65">
+        <v>447</v>
+      </c>
+      <c r="F65">
+        <v>477.3</v>
+      </c>
+      <c r="G65">
+        <v>1326.6</v>
+      </c>
+      <c r="H65">
+        <v>7317</v>
+      </c>
+      <c r="I65">
+        <v>156.9</v>
+      </c>
+      <c r="J65">
+        <v>3049.4</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>901.9</v>
+      </c>
+      <c r="O65">
+        <v>5174.3</v>
+      </c>
+      <c r="P65">
+        <v>3380.2</v>
+      </c>
+      <c r="Q65">
+        <v>106.9</v>
+      </c>
+      <c r="R65">
+        <v>42637</v>
+      </c>
+      <c r="S65">
+        <v>5333</v>
+      </c>
+      <c r="T65">
+        <v>2142.6999999999998</v>
+      </c>
+      <c r="U65">
+        <v>548.4</v>
+      </c>
+      <c r="V65">
+        <v>228.5</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-89.3</v>
+      </c>
+      <c r="Y65">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>92.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>86.5</v>
+      </c>
+      <c r="D66">
+        <v>734.4</v>
+      </c>
+      <c r="E66">
+        <v>419.9</v>
+      </c>
+      <c r="F66">
+        <v>478.3</v>
+      </c>
+      <c r="G66">
+        <v>2338.1</v>
+      </c>
+      <c r="H66">
+        <v>7337.8</v>
+      </c>
+      <c r="I66">
+        <v>138.69999999999999</v>
+      </c>
+      <c r="J66">
+        <v>2615.6</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="N66">
+        <v>1290.7</v>
+      </c>
+      <c r="O66">
+        <v>5109.2</v>
+      </c>
+      <c r="P66">
+        <v>3322.9</v>
+      </c>
+      <c r="Q66">
+        <v>97.6</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>2228.6</v>
+      </c>
+      <c r="U66">
+        <v>646</v>
+      </c>
+      <c r="V66">
+        <v>169.6</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-40.4</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0.4</v>
+      </c>
+      <c r="AA66">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>526.79999999999995</v>
+      </c>
+      <c r="D67">
+        <v>715.4</v>
+      </c>
+      <c r="E67">
+        <v>456.7</v>
+      </c>
+      <c r="F67">
+        <v>456.3</v>
+      </c>
+      <c r="G67">
+        <v>2051.8000000000002</v>
+      </c>
+      <c r="H67">
+        <v>8706.6</v>
+      </c>
+      <c r="I67">
+        <v>177.1</v>
+      </c>
+      <c r="J67">
+        <v>2233.8000000000002</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>2375.4</v>
+      </c>
+      <c r="O67">
+        <v>5909.5</v>
+      </c>
+      <c r="P67">
+        <v>3308.4</v>
+      </c>
+      <c r="Q67">
+        <v>488.6</v>
+      </c>
+      <c r="R67">
+        <v>42826</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>2797.1</v>
+      </c>
+      <c r="U67">
+        <v>1134.5999999999999</v>
+      </c>
+      <c r="V67">
+        <v>83.8</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-45.1</v>
+      </c>
+      <c r="Y67">
+        <v>23.6</v>
+      </c>
+      <c r="Z67">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="AA67">
+        <v>526.79999999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>59.5</v>
+      </c>
+      <c r="D68">
+        <v>806.1</v>
+      </c>
+      <c r="E68">
+        <v>520.29999999999995</v>
+      </c>
+      <c r="F68">
+        <v>508.3</v>
+      </c>
+      <c r="G68">
+        <v>1536</v>
+      </c>
+      <c r="H68">
+        <v>8118</v>
+      </c>
+      <c r="I68">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="J68">
+        <v>2207.6</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1812.8</v>
+      </c>
+      <c r="O68">
+        <v>5252.4</v>
+      </c>
+      <c r="P68">
+        <v>3245.7</v>
+      </c>
+      <c r="Q68">
+        <v>-546.20000000000005</v>
+      </c>
+      <c r="R68">
+        <v>42917</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>2865.6</v>
+      </c>
+      <c r="U68">
+        <v>588.4</v>
+      </c>
+      <c r="V68">
+        <v>-411.7</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-113.1</v>
+      </c>
+      <c r="Y68">
+        <v>23.2</v>
+      </c>
+      <c r="Z68">
+        <v>5.3</v>
+      </c>
+      <c r="AA68">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>82.7</v>
+      </c>
+      <c r="D69">
+        <v>802.9</v>
+      </c>
+      <c r="E69">
+        <v>533.5</v>
+      </c>
+      <c r="F69">
+        <v>514.4</v>
+      </c>
+      <c r="G69">
+        <v>1478.6</v>
+      </c>
+      <c r="H69">
+        <v>7979.6</v>
+      </c>
+      <c r="I69">
+        <v>166.6</v>
+      </c>
+      <c r="J69">
+        <v>2172.1</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1865.5</v>
+      </c>
+      <c r="O69">
+        <v>5194.8999999999996</v>
+      </c>
+      <c r="P69">
+        <v>3381.3</v>
+      </c>
+      <c r="Q69">
+        <v>-47.8</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>6233</v>
+      </c>
+      <c r="T69">
+        <v>2784.7</v>
+      </c>
+      <c r="U69">
+        <v>540.6</v>
+      </c>
+      <c r="V69">
+        <v>166.6</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-110.6</v>
+      </c>
+      <c r="Y69">
+        <v>56.8</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>82.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43099</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>406.7</v>
+      </c>
+      <c r="D70">
+        <v>791.1</v>
+      </c>
+      <c r="E70">
+        <v>548</v>
+      </c>
+      <c r="F70">
+        <v>504.3</v>
+      </c>
+      <c r="G70">
+        <v>1638.4</v>
+      </c>
+      <c r="H70">
+        <v>8048.3</v>
+      </c>
+      <c r="I70">
+        <v>160.30000000000001</v>
+      </c>
+      <c r="J70">
+        <v>2757.7</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>-720</v>
+      </c>
+      <c r="M70">
+        <v>-1628.6</v>
+      </c>
+      <c r="N70">
+        <v>1309.9000000000001</v>
+      </c>
+      <c r="O70">
+        <v>4854.3</v>
+      </c>
+      <c r="P70">
+        <v>3353.7</v>
+      </c>
+      <c r="Q70">
+        <v>123.8</v>
+      </c>
+      <c r="R70">
+        <v>43099</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>3194</v>
+      </c>
+      <c r="U70">
+        <v>664.4</v>
+      </c>
+      <c r="V70">
+        <v>169.1</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-20.3</v>
+      </c>
+      <c r="Y70">
+        <v>22.3</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>406.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>-681.4</v>
+      </c>
+      <c r="D71">
+        <v>789.3</v>
+      </c>
+      <c r="E71">
+        <v>544.20000000000005</v>
+      </c>
+      <c r="F71">
+        <v>494.9</v>
+      </c>
+      <c r="G71">
+        <v>1635.2</v>
+      </c>
+      <c r="H71">
+        <v>7234.4</v>
+      </c>
+      <c r="I71">
+        <v>158.19999999999999</v>
+      </c>
+      <c r="J71">
+        <v>2739.2</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1299.5999999999999</v>
+      </c>
+      <c r="O71">
+        <v>4788.8</v>
+      </c>
+      <c r="P71">
+        <v>3374.2</v>
+      </c>
+      <c r="Q71">
+        <v>-50.2</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>2445.6</v>
+      </c>
+      <c r="U71">
+        <v>614.20000000000005</v>
+      </c>
+      <c r="V71">
+        <v>97.4</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-115.1</v>
+      </c>
+      <c r="Y71">
+        <v>21.8</v>
+      </c>
+      <c r="Z71">
+        <v>-6</v>
+      </c>
+      <c r="AA71">
+        <v>-681.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>112.9</v>
+      </c>
+      <c r="D72">
+        <v>824</v>
+      </c>
+      <c r="E72">
+        <v>551.70000000000005</v>
+      </c>
+      <c r="F72">
+        <v>515.4</v>
+      </c>
+      <c r="G72">
+        <v>1595.4</v>
+      </c>
+      <c r="H72">
+        <v>7091.4</v>
+      </c>
+      <c r="I72">
+        <v>167.3</v>
+      </c>
+      <c r="J72">
+        <v>2721.9</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1235.2</v>
+      </c>
+      <c r="O72">
+        <v>4641.8999999999996</v>
+      </c>
+      <c r="P72">
+        <v>3270.2</v>
+      </c>
+      <c r="Q72">
+        <v>-38.799999999999997</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>2449.5</v>
+      </c>
+      <c r="U72">
+        <v>575.4</v>
+      </c>
+      <c r="V72">
+        <v>234</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-241.5</v>
+      </c>
+      <c r="Y72">
+        <v>21.4</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>112.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43372</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>50.5</v>
+      </c>
+      <c r="D73">
+        <v>813.4</v>
+      </c>
+      <c r="E73">
+        <v>579.20000000000005</v>
+      </c>
+      <c r="F73">
+        <v>502.5</v>
+      </c>
+      <c r="G73">
+        <v>1723.2</v>
+      </c>
+      <c r="H73">
+        <v>7230.9</v>
+      </c>
+      <c r="I73">
+        <v>192.2</v>
+      </c>
+      <c r="J73">
+        <v>2704.6</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1402.6</v>
+      </c>
+      <c r="O73">
+        <v>4802.1000000000004</v>
+      </c>
+      <c r="P73">
+        <v>3362.4</v>
+      </c>
+      <c r="Q73">
+        <v>91.3</v>
+      </c>
+      <c r="R73">
+        <v>43372</v>
+      </c>
+      <c r="S73">
+        <v>6252</v>
+      </c>
+      <c r="T73">
+        <v>2428.8000000000002</v>
+      </c>
+      <c r="U73">
+        <v>666.7</v>
+      </c>
+      <c r="V73">
+        <v>232.4</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-27.9</v>
+      </c>
+      <c r="Y73">
+        <v>56.4</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43463</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>98.6</v>
+      </c>
+      <c r="D74">
+        <v>830.7</v>
+      </c>
+      <c r="E74">
+        <v>578.6</v>
+      </c>
+      <c r="F74">
+        <v>516.9</v>
+      </c>
+      <c r="G74">
+        <v>1401.9</v>
+      </c>
+      <c r="H74">
+        <v>6931.5</v>
+      </c>
+      <c r="I74">
+        <v>176.3</v>
+      </c>
+      <c r="J74">
+        <v>2807.9</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>-695</v>
+      </c>
+      <c r="M74">
+        <v>-1465.4</v>
+      </c>
+      <c r="N74">
+        <v>1077.7</v>
+      </c>
+      <c r="O74">
+        <v>4537.1000000000004</v>
+      </c>
+      <c r="P74">
+        <v>3149.5</v>
+      </c>
+      <c r="Q74">
+        <v>-355.6</v>
+      </c>
+      <c r="R74">
+        <v>43463</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>2394.4</v>
+      </c>
+      <c r="U74">
+        <v>311.10000000000002</v>
+      </c>
+      <c r="V74">
+        <v>104.6</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-328.2</v>
+      </c>
+      <c r="Y74">
+        <v>20.5</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43554</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>-272.60000000000002</v>
+      </c>
+      <c r="D75">
+        <v>818.4</v>
+      </c>
+      <c r="E75">
+        <v>557.5</v>
+      </c>
+      <c r="F75">
+        <v>497.4</v>
+      </c>
+      <c r="G75">
+        <v>1511</v>
+      </c>
+      <c r="H75">
+        <v>6525.3</v>
+      </c>
+      <c r="I75">
+        <v>165.2</v>
+      </c>
+      <c r="J75">
+        <v>2799.7</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1045.2</v>
+      </c>
+      <c r="O75">
+        <v>4365.5</v>
+      </c>
+      <c r="P75">
+        <v>3132.2</v>
+      </c>
+      <c r="Q75">
+        <v>89.9</v>
+      </c>
+      <c r="R75">
+        <v>43554</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>2159.8000000000002</v>
+      </c>
+      <c r="U75">
+        <v>401</v>
+      </c>
+      <c r="V75">
+        <v>133.5</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-8</v>
+      </c>
+      <c r="Y75">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="Z75">
+        <v>-3</v>
+      </c>
+      <c r="AA75">
+        <v>-272.60000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43645</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>93.9</v>
+      </c>
+      <c r="D76">
+        <v>852.4</v>
+      </c>
+      <c r="E76">
+        <v>586.79999999999995</v>
+      </c>
+      <c r="F76">
+        <v>523.4</v>
+      </c>
+      <c r="G76">
+        <v>1591.8</v>
+      </c>
+      <c r="H76">
+        <v>6522.4</v>
+      </c>
+      <c r="I76">
+        <v>161.5</v>
+      </c>
+      <c r="J76">
+        <v>2791.6</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1015.2</v>
+      </c>
+      <c r="O76">
+        <v>4305.8999999999996</v>
+      </c>
+      <c r="P76">
+        <v>3075</v>
+      </c>
+      <c r="Q76">
+        <v>26.9</v>
+      </c>
+      <c r="R76">
+        <v>43645</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>2216.5</v>
+      </c>
+      <c r="U76">
+        <v>427.9</v>
+      </c>
+      <c r="V76">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-104.5</v>
+      </c>
+      <c r="Y76">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>93.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43736</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>-123.5</v>
+      </c>
+      <c r="D77">
+        <v>865.9</v>
+      </c>
+      <c r="E77">
+        <v>648.70000000000005</v>
+      </c>
+      <c r="F77">
+        <v>539.29999999999995</v>
+      </c>
+      <c r="G77">
+        <v>1793.1</v>
+      </c>
+      <c r="H77">
+        <v>6442.1</v>
+      </c>
+      <c r="I77">
+        <v>186.5</v>
+      </c>
+      <c r="J77">
+        <v>2783.6</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1070.0999999999999</v>
+      </c>
+      <c r="O77">
+        <v>4326.3999999999996</v>
+      </c>
+      <c r="P77">
+        <v>3109.7</v>
+      </c>
+      <c r="Q77">
+        <v>173.9</v>
+      </c>
+      <c r="R77">
+        <v>43736</v>
+      </c>
+      <c r="S77">
+        <v>6478</v>
+      </c>
+      <c r="T77">
+        <v>2115.6999999999998</v>
+      </c>
+      <c r="U77">
+        <v>601.79999999999995</v>
+      </c>
+      <c r="V77">
+        <v>247.7</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Y77">
+        <v>52.9</v>
+      </c>
+      <c r="Z77">
+        <v>-18.2</v>
+      </c>
+      <c r="AA77">
+        <v>-123.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43827</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>386.1</v>
+      </c>
+      <c r="D78">
+        <v>850.5</v>
+      </c>
+      <c r="E78">
+        <v>581.79999999999995</v>
+      </c>
+      <c r="F78">
+        <v>523.20000000000005</v>
+      </c>
+      <c r="G78">
+        <v>1637.6</v>
+      </c>
+      <c r="H78">
+        <v>6311.9</v>
+      </c>
+      <c r="I78">
+        <v>123.7</v>
+      </c>
+      <c r="J78">
+        <v>2769.4</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="N78">
+        <v>1043.3</v>
+      </c>
+      <c r="O78">
+        <v>4054.2</v>
+      </c>
+      <c r="P78">
+        <v>3186.7</v>
+      </c>
+      <c r="Q78">
+        <v>-220.3</v>
+      </c>
+      <c r="R78">
+        <v>43827</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>2257.6999999999998</v>
+      </c>
+      <c r="U78">
+        <v>370.8</v>
+      </c>
+      <c r="V78">
+        <v>113.9</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-289.89999999999998</v>
+      </c>
+      <c r="Y78">
+        <v>91.1</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>386.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>96.4</v>
+      </c>
+      <c r="D79">
+        <v>756.1</v>
+      </c>
+      <c r="E79">
+        <v>597.20000000000005</v>
+      </c>
+      <c r="F79">
+        <v>458.7</v>
+      </c>
+      <c r="G79">
+        <v>1936.6</v>
+      </c>
+      <c r="H79">
+        <v>6821.8</v>
+      </c>
+      <c r="I79">
+        <v>134.4</v>
+      </c>
+      <c r="J79">
+        <v>2769.8</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1480.9</v>
+      </c>
+      <c r="O79">
+        <v>4730.6000000000004</v>
+      </c>
+      <c r="P79">
+        <v>3689.3</v>
+      </c>
+      <c r="Q79">
+        <v>418.3</v>
+      </c>
+      <c r="R79">
+        <v>43918</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>2091.1999999999998</v>
+      </c>
+      <c r="U79">
+        <v>799.8</v>
+      </c>
+      <c r="V79">
+        <v>117.7</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>222.6</v>
+      </c>
+      <c r="Y79">
+        <v>87.1</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="D80">
+        <v>822.9</v>
+      </c>
+      <c r="E80">
+        <v>728</v>
+      </c>
+      <c r="F80">
+        <v>529</v>
+      </c>
+      <c r="G80">
+        <v>1982.8</v>
+      </c>
+      <c r="H80">
+        <v>6803.1</v>
+      </c>
+      <c r="I80">
+        <v>127.3</v>
+      </c>
+      <c r="J80">
+        <v>2754.9</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1345.7</v>
+      </c>
+      <c r="O80">
+        <v>4544.5</v>
+      </c>
+      <c r="P80">
+        <v>3436.7</v>
+      </c>
+      <c r="Q80">
+        <v>-55.6</v>
+      </c>
+      <c r="R80">
+        <v>44009</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>2258.6</v>
+      </c>
+      <c r="U80">
+        <v>744.2</v>
+      </c>
+      <c r="V80">
+        <v>223</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-241.7</v>
+      </c>
+      <c r="Y80">
+        <v>86.2</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>137.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>494.9</v>
+      </c>
+      <c r="D81">
+        <v>1346.9</v>
+      </c>
+      <c r="E81">
+        <v>1028.9000000000001</v>
+      </c>
+      <c r="F81">
+        <v>1002.4</v>
+      </c>
+      <c r="G81">
+        <v>2222.3000000000002</v>
+      </c>
+      <c r="H81">
+        <v>7195.8</v>
+      </c>
+      <c r="I81">
+        <v>178.8</v>
+      </c>
+      <c r="J81">
+        <v>2736.9</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1239.3</v>
+      </c>
+      <c r="O81">
+        <v>4488.5</v>
+      </c>
+      <c r="P81">
+        <v>3170.2</v>
+      </c>
+      <c r="Q81">
+        <v>-43.2</v>
+      </c>
+      <c r="R81">
+        <v>44100</v>
+      </c>
+      <c r="S81">
+        <v>5814</v>
+      </c>
+      <c r="T81">
+        <v>2707.3</v>
+      </c>
+      <c r="U81">
+        <v>701</v>
+      </c>
+      <c r="V81">
+        <v>442</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>-350.9</v>
+      </c>
+      <c r="Y81">
+        <v>83</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>494.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>654.4</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1609.8</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1216.0999999999999</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1243</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2596.3000000000002</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>7550.7</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>184.3</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>2709.1</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
         <v>-250</v>
       </c>
-      <c r="M42">
+      <c r="M82">
         <v>-990.1</v>
       </c>
-      <c r="N42">
+      <c r="N82">
         <v>1056</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>4281.7</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>2813.9</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>167.7</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44191</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>3269</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>868.7</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>650</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-428.2</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>16.8</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>654.4</v>
       </c>
     </row>
